--- a/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\RandomForestClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1481A68-692D-4B7F-9AD2-A91A7E5A01BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485A802-B056-4572-BF47-22E0187F7492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -18,12 +18,29 @@
     <sheet name="MagicTelescope (3)" sheetId="16" r:id="rId3"/>
     <sheet name="elevators (3)" sheetId="15" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="elevator chart" sheetId="6" r:id="rId6"/>
-    <sheet name="telescope chart" sheetId="7" r:id="rId7"/>
-    <sheet name="phishing chart" sheetId="8" r:id="rId8"/>
-    <sheet name="mozilla chart" sheetId="14" r:id="rId9"/>
+    <sheet name="boxplot" sheetId="19" r:id="rId6"/>
+    <sheet name="elevator chart" sheetId="6" r:id="rId7"/>
+    <sheet name="telescope chart" sheetId="7" r:id="rId8"/>
+    <sheet name="phishing chart" sheetId="8" r:id="rId9"/>
+    <sheet name="mozilla chart" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'elevators (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$V$51</definedName>
@@ -91,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="93">
   <si>
     <t>Column1</t>
   </si>
@@ -359,6 +376,18 @@
   <si>
     <t>{'model__max_features': 0.30514164628774754, 'model__max_samples': 0.48439700976363065, 'model__n_estimators': 116}</t>
   </si>
+  <si>
+    <t>elevators</t>
+  </si>
+  <si>
+    <t>MagicTelescope</t>
+  </si>
+  <si>
+    <t>mozilla4</t>
+  </si>
+  <si>
+    <t>PhishingWebsites</t>
+  </si>
 </sst>
 </file>
 
@@ -393,9 +422,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,18 +438,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -463,6 +479,18 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -482,6 +510,82 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -892,7 +996,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$9:$P$10</c:f>
+              <c:f>Sheet1!$R$9:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -907,7 +1011,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1263,7 +1367,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2818,7 +2922,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$13:$P$14</c:f>
+              <c:f>Sheet1!$R$13:$R$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2833,7 +2937,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3219,7 +3323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4774,7 +4878,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$21:$P$22</c:f>
+              <c:f>Sheet1!$R$21:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4789,7 +4893,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5174,7 +5278,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5587,7 +5691,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$17:$P$18</c:f>
+              <c:f>Sheet1!$R$17:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5602,7 +5706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$9:$Q$10</c:f>
+              <c:f>Sheet1!$S$9:$S$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5901,6 +6005,101 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{57CF8EF3-5E66-40CB-B8EA-EDC59B0B9426}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>elevators</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{23A9F46C-17CE-423E-9448-C87E9B9CB633}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>MagicTelescope</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{76994B59-597B-4150-A6A0-35749A3C9D9B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>mozilla4</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4575643-015F-45DF-BB5E-9FC01524F218}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>PhishingWebsites</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6061,8 +6260,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6073,7 +6312,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6096,7 +6335,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6119,7 +6358,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="1000"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6127,11 +6366,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -6156,14 +6395,16 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6174,11 +6415,16 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6195,7 +6441,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6210,10 +6456,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -6226,7 +6470,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -6236,13 +6480,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6261,18 +6505,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -6343,12 +6585,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6380,8 +6616,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6436,7 +6672,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6464,7 +6700,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -6474,12 +6721,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:srgbClr val="D9D9D9"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6495,7 +6739,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6511,7 +6755,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6525,7 +6769,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -6558,7 +6802,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -6567,12 +6811,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8125,7 +8363,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8938A5B4-DBC8-4EA6-9905-CEDA311AC977}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2920DEEF-4721-476A-B5CF-CD5249DD2B9B}">
   <sheetPr/>
   <sheetViews>
@@ -8136,7 +8901,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{65802B8A-B8BC-4D5A-9DC7-D1ACCFFB5065}">
   <sheetPr/>
   <sheetViews>
@@ -8147,7 +8912,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A823BD7F-7B3D-490E-8599-AC852B951D66}">
   <sheetPr/>
   <sheetViews>
@@ -8158,11 +8923,11 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8170,6 +8935,117 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657167" cy="6286500"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A8EB27-E234-DF18-EDB8-387660FFA9EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3E0552-2969-E84C-AA59-AFA83D3DE79F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657167" cy="6286500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8202,7 +9078,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8235,7 +9111,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8268,7 +9144,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8437,7 +9313,7 @@
     <tableColumn id="6" xr3:uid="{114035E8-6FE2-4808-BCEC-C662DF784355}" uniqueName="6" name="param_model__max_features" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{10B6318B-438A-42FB-BE3E-E87A364C4D1E}" uniqueName="7" name="param_model__max_samples" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{65B88312-8276-479A-A99E-EACB35B2F5A1}" uniqueName="8" name="param_model__n_estimators" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{6CFE829B-1D40-406C-A38F-0A3204C4B97B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{6CFE829B-1D40-406C-A38F-0A3204C4B97B}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="8"/>
     <tableColumn id="10" xr3:uid="{E00E5816-D9D3-4EFF-B346-3864BDB97C08}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{C3236094-9B4F-43B8-ADC8-94034BB84280}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{D28FF925-A935-456E-8226-FF7BE138AC17}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8468,7 +9344,7 @@
     <tableColumn id="6" xr3:uid="{52DF1C0B-1B3E-4055-9F90-061E6A3F4A9C}" uniqueName="6" name="param_model__max_features" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9457C31C-5AAB-40C8-BFF4-A5FD026AB34F}" uniqueName="7" name="param_model__max_samples" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{B1B6E56E-927C-4F9E-8F58-59DC728D26E3}" uniqueName="8" name="param_model__n_estimators" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{8419D61F-A3FB-43E8-976F-2B2E22E15201}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{8419D61F-A3FB-43E8-976F-2B2E22E15201}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="7"/>
     <tableColumn id="10" xr3:uid="{E23A8B93-164F-4F75-9E3B-AB7AA6A7E05D}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{A04EA12B-F740-4764-80CA-2EE24FE8C786}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{C1477D28-5915-4B0E-B3BA-7FE6BD378D75}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8499,7 +9375,7 @@
     <tableColumn id="6" xr3:uid="{04391D62-844F-4B94-9424-1F8EC2C150EE}" uniqueName="6" name="param_model__max_features" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{1C7B32A5-7FE8-48EA-BF07-070AFD387BCE}" uniqueName="7" name="param_model__max_samples" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{80A2CA1C-BE54-4C45-B22B-72421619824B}" uniqueName="8" name="param_model__n_estimators" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{30BDC88F-7132-442A-AF55-92ADAD0B8F56}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{30BDC88F-7132-442A-AF55-92ADAD0B8F56}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{5A57A792-CDA0-44A2-B458-C78A6A1A5D4F}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{ED622E39-9499-45EC-BF45-9E7AB8FDD6FD}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{BAE81601-DFAE-457E-ABC1-D285B88B7DDB}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8530,7 +9406,7 @@
     <tableColumn id="6" xr3:uid="{5FEE1A51-3890-49BE-B428-D41366D5B81B}" uniqueName="6" name="param_model__max_features" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{67A858E6-449A-4D05-A672-6E5B8E501496}" uniqueName="7" name="param_model__max_samples" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{C6966938-173A-4F14-9F65-664B85C7F304}" uniqueName="8" name="param_model__n_estimators" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{DA07C7D0-7499-4E7A-A60F-26793593F575}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{DA07C7D0-7499-4E7A-A60F-26793593F575}" uniqueName="9" name="params" queryTableFieldId="9" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{76718355-98C9-4124-BAD7-E1BFFE1CA112}" uniqueName="10" name="split0_test_score" queryTableFieldId="10"/>
     <tableColumn id="11" xr3:uid="{8182FF15-B83C-4123-B139-87A15705D543}" uniqueName="11" name="split1_test_score" queryTableFieldId="11"/>
     <tableColumn id="12" xr3:uid="{40736E93-D913-4989-A18C-5118BD4AB022}" uniqueName="12" name="split2_test_score" queryTableFieldId="12"/>
@@ -8960,7 +9836,7 @@
       <c r="H2">
         <v>107</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2">
@@ -9028,7 +9904,7 @@
       <c r="H3">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -9096,7 +9972,7 @@
       <c r="H4">
         <v>88</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4">
@@ -9164,7 +10040,7 @@
       <c r="H5">
         <v>131</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5">
@@ -9232,7 +10108,7 @@
       <c r="H6">
         <v>492</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
       <c r="J6">
@@ -9300,7 +10176,7 @@
       <c r="H7">
         <v>444</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7">
@@ -9368,7 +10244,7 @@
       <c r="H8">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
@@ -9436,7 +10312,7 @@
       <c r="H9">
         <v>475</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
@@ -9504,7 +10380,7 @@
       <c r="H10">
         <v>476</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10">
@@ -9572,7 +10448,7 @@
       <c r="H11">
         <v>446</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11">
@@ -9640,7 +10516,7 @@
       <c r="H12">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12">
@@ -9708,7 +10584,7 @@
       <c r="H13">
         <v>485</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>50</v>
       </c>
       <c r="J13">
@@ -9776,7 +10652,7 @@
       <c r="H14">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14">
@@ -9844,7 +10720,7 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
@@ -9912,7 +10788,7 @@
       <c r="H16">
         <v>53</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>53</v>
       </c>
       <c r="J16">
@@ -9980,7 +10856,7 @@
       <c r="H17">
         <v>444</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
       <c r="J17">
@@ -10048,7 +10924,7 @@
       <c r="H18">
         <v>431</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
       <c r="J18">
@@ -10116,7 +10992,7 @@
       <c r="H19">
         <v>50</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="J19">
@@ -10184,7 +11060,7 @@
       <c r="H20">
         <v>390</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
       <c r="J20">
@@ -10252,7 +11128,7 @@
       <c r="H21">
         <v>477</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
       <c r="J21">
@@ -10320,7 +11196,7 @@
       <c r="H22">
         <v>162</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22">
@@ -10388,7 +11264,7 @@
       <c r="H23">
         <v>351</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
       <c r="J23">
@@ -10456,7 +11332,7 @@
       <c r="H24">
         <v>215</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>61</v>
       </c>
       <c r="J24">
@@ -10524,7 +11400,7 @@
       <c r="H25">
         <v>213</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
       <c r="J25">
@@ -10592,7 +11468,7 @@
       <c r="H26">
         <v>53</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
       <c r="J26">
@@ -10660,7 +11536,7 @@
       <c r="H27">
         <v>188</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>64</v>
       </c>
       <c r="J27">
@@ -10728,7 +11604,7 @@
       <c r="H28">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
       <c r="J28">
@@ -10796,7 +11672,7 @@
       <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
       <c r="J29">
@@ -10864,7 +11740,7 @@
       <c r="H30">
         <v>472</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>67</v>
       </c>
       <c r="J30">
@@ -10932,7 +11808,7 @@
       <c r="H31">
         <v>392</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31">
@@ -11000,7 +11876,7 @@
       <c r="H32">
         <v>261</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
       <c r="J32">
@@ -11068,7 +11944,7 @@
       <c r="H33">
         <v>28</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33">
@@ -11136,7 +12012,7 @@
       <c r="H34">
         <v>418</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>71</v>
       </c>
       <c r="J34">
@@ -11204,7 +12080,7 @@
       <c r="H35">
         <v>62</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
       <c r="J35">
@@ -11272,7 +12148,7 @@
       <c r="H36">
         <v>360</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
       <c r="J36">
@@ -11340,7 +12216,7 @@
       <c r="H37">
         <v>227</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37">
@@ -11408,7 +12284,7 @@
       <c r="H38">
         <v>257</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
       <c r="J38">
@@ -11476,7 +12352,7 @@
       <c r="H39">
         <v>398</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>76</v>
       </c>
       <c r="J39">
@@ -11544,7 +12420,7 @@
       <c r="H40">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>77</v>
       </c>
       <c r="J40">
@@ -11612,7 +12488,7 @@
       <c r="H41">
         <v>179</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>78</v>
       </c>
       <c r="J41">
@@ -11680,7 +12556,7 @@
       <c r="H42">
         <v>52</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>79</v>
       </c>
       <c r="J42">
@@ -11748,7 +12624,7 @@
       <c r="H43">
         <v>485</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>80</v>
       </c>
       <c r="J43">
@@ -11816,7 +12692,7 @@
       <c r="H44">
         <v>171</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>81</v>
       </c>
       <c r="J44">
@@ -11884,7 +12760,7 @@
       <c r="H45">
         <v>327</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>82</v>
       </c>
       <c r="J45">
@@ -11952,7 +12828,7 @@
       <c r="H46">
         <v>66</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>83</v>
       </c>
       <c r="J46">
@@ -12020,7 +12896,7 @@
       <c r="H47">
         <v>134</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>84</v>
       </c>
       <c r="J47">
@@ -12088,7 +12964,7 @@
       <c r="H48">
         <v>340</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>85</v>
       </c>
       <c r="J48">
@@ -12156,7 +13032,7 @@
       <c r="H49">
         <v>348</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>86</v>
       </c>
       <c r="J49">
@@ -12224,7 +13100,7 @@
       <c r="H50">
         <v>385</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>87</v>
       </c>
       <c r="J50">
@@ -12292,7 +13168,7 @@
       <c r="H51">
         <v>116</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>88</v>
       </c>
       <c r="J51">
@@ -12459,7 +13335,7 @@
       <c r="H2">
         <v>107</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2">
@@ -12527,7 +13403,7 @@
       <c r="H3">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -12595,7 +13471,7 @@
       <c r="H4">
         <v>88</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4">
@@ -12663,7 +13539,7 @@
       <c r="H5">
         <v>131</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5">
@@ -12731,7 +13607,7 @@
       <c r="H6">
         <v>492</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
       <c r="J6">
@@ -12799,7 +13675,7 @@
       <c r="H7">
         <v>444</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7">
@@ -12867,7 +13743,7 @@
       <c r="H8">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
@@ -12935,7 +13811,7 @@
       <c r="H9">
         <v>475</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
@@ -13003,7 +13879,7 @@
       <c r="H10">
         <v>476</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10">
@@ -13071,7 +13947,7 @@
       <c r="H11">
         <v>446</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11">
@@ -13139,7 +14015,7 @@
       <c r="H12">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12">
@@ -13207,7 +14083,7 @@
       <c r="H13">
         <v>485</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>50</v>
       </c>
       <c r="J13">
@@ -13275,7 +14151,7 @@
       <c r="H14">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14">
@@ -13343,7 +14219,7 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
@@ -13411,7 +14287,7 @@
       <c r="H16">
         <v>53</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>53</v>
       </c>
       <c r="J16">
@@ -13479,7 +14355,7 @@
       <c r="H17">
         <v>444</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
       <c r="J17">
@@ -13547,7 +14423,7 @@
       <c r="H18">
         <v>431</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
       <c r="J18">
@@ -13615,7 +14491,7 @@
       <c r="H19">
         <v>50</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="J19">
@@ -13683,7 +14559,7 @@
       <c r="H20">
         <v>390</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
       <c r="J20">
@@ -13751,7 +14627,7 @@
       <c r="H21">
         <v>477</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
       <c r="J21">
@@ -13819,7 +14695,7 @@
       <c r="H22">
         <v>162</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22">
@@ -13887,7 +14763,7 @@
       <c r="H23">
         <v>351</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
       <c r="J23">
@@ -13955,7 +14831,7 @@
       <c r="H24">
         <v>215</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>61</v>
       </c>
       <c r="J24">
@@ -14023,7 +14899,7 @@
       <c r="H25">
         <v>213</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
       <c r="J25">
@@ -14091,7 +14967,7 @@
       <c r="H26">
         <v>53</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
       <c r="J26">
@@ -14159,7 +15035,7 @@
       <c r="H27">
         <v>188</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>64</v>
       </c>
       <c r="J27">
@@ -14227,7 +15103,7 @@
       <c r="H28">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
       <c r="J28">
@@ -14295,7 +15171,7 @@
       <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
       <c r="J29">
@@ -14363,7 +15239,7 @@
       <c r="H30">
         <v>472</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>67</v>
       </c>
       <c r="J30">
@@ -14431,7 +15307,7 @@
       <c r="H31">
         <v>392</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31">
@@ -14499,7 +15375,7 @@
       <c r="H32">
         <v>261</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
       <c r="J32">
@@ -14567,7 +15443,7 @@
       <c r="H33">
         <v>28</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33">
@@ -14635,7 +15511,7 @@
       <c r="H34">
         <v>418</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>71</v>
       </c>
       <c r="J34">
@@ -14703,7 +15579,7 @@
       <c r="H35">
         <v>62</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
       <c r="J35">
@@ -14771,7 +15647,7 @@
       <c r="H36">
         <v>360</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
       <c r="J36">
@@ -14839,7 +15715,7 @@
       <c r="H37">
         <v>227</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37">
@@ -14907,7 +15783,7 @@
       <c r="H38">
         <v>257</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
       <c r="J38">
@@ -14975,7 +15851,7 @@
       <c r="H39">
         <v>398</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>76</v>
       </c>
       <c r="J39">
@@ -15043,7 +15919,7 @@
       <c r="H40">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>77</v>
       </c>
       <c r="J40">
@@ -15111,7 +15987,7 @@
       <c r="H41">
         <v>179</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>78</v>
       </c>
       <c r="J41">
@@ -15179,7 +16055,7 @@
       <c r="H42">
         <v>52</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>79</v>
       </c>
       <c r="J42">
@@ -15247,7 +16123,7 @@
       <c r="H43">
         <v>485</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>80</v>
       </c>
       <c r="J43">
@@ -15315,7 +16191,7 @@
       <c r="H44">
         <v>171</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>81</v>
       </c>
       <c r="J44">
@@ -15383,7 +16259,7 @@
       <c r="H45">
         <v>327</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>82</v>
       </c>
       <c r="J45">
@@ -15451,7 +16327,7 @@
       <c r="H46">
         <v>66</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>83</v>
       </c>
       <c r="J46">
@@ -15519,7 +16395,7 @@
       <c r="H47">
         <v>134</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>84</v>
       </c>
       <c r="J47">
@@ -15587,7 +16463,7 @@
       <c r="H48">
         <v>340</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>85</v>
       </c>
       <c r="J48">
@@ -15655,7 +16531,7 @@
       <c r="H49">
         <v>348</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>86</v>
       </c>
       <c r="J49">
@@ -15723,7 +16599,7 @@
       <c r="H50">
         <v>385</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>87</v>
       </c>
       <c r="J50">
@@ -15791,7 +16667,7 @@
       <c r="H51">
         <v>116</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>88</v>
       </c>
       <c r="J51">
@@ -15958,7 +16834,7 @@
       <c r="H2">
         <v>107</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2">
@@ -16026,7 +16902,7 @@
       <c r="H3">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -16094,7 +16970,7 @@
       <c r="H4">
         <v>88</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4">
@@ -16162,7 +17038,7 @@
       <c r="H5">
         <v>131</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5">
@@ -16230,7 +17106,7 @@
       <c r="H6">
         <v>492</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
       <c r="J6">
@@ -16298,7 +17174,7 @@
       <c r="H7">
         <v>444</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7">
@@ -16366,7 +17242,7 @@
       <c r="H8">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
@@ -16434,7 +17310,7 @@
       <c r="H9">
         <v>475</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
@@ -16502,7 +17378,7 @@
       <c r="H10">
         <v>476</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10">
@@ -16570,7 +17446,7 @@
       <c r="H11">
         <v>446</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11">
@@ -16638,7 +17514,7 @@
       <c r="H12">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12">
@@ -16706,7 +17582,7 @@
       <c r="H13">
         <v>485</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>50</v>
       </c>
       <c r="J13">
@@ -16774,7 +17650,7 @@
       <c r="H14">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14">
@@ -16842,7 +17718,7 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
@@ -16910,7 +17786,7 @@
       <c r="H16">
         <v>53</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>53</v>
       </c>
       <c r="J16">
@@ -16978,7 +17854,7 @@
       <c r="H17">
         <v>444</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
       <c r="J17">
@@ -17046,7 +17922,7 @@
       <c r="H18">
         <v>431</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
       <c r="J18">
@@ -17114,7 +17990,7 @@
       <c r="H19">
         <v>50</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="J19">
@@ -17182,7 +18058,7 @@
       <c r="H20">
         <v>390</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
       <c r="J20">
@@ -17250,7 +18126,7 @@
       <c r="H21">
         <v>477</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
       <c r="J21">
@@ -17318,7 +18194,7 @@
       <c r="H22">
         <v>162</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22">
@@ -17386,7 +18262,7 @@
       <c r="H23">
         <v>351</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
       <c r="J23">
@@ -17454,7 +18330,7 @@
       <c r="H24">
         <v>215</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>61</v>
       </c>
       <c r="J24">
@@ -17522,7 +18398,7 @@
       <c r="H25">
         <v>213</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
       <c r="J25">
@@ -17590,7 +18466,7 @@
       <c r="H26">
         <v>53</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
       <c r="J26">
@@ -17658,7 +18534,7 @@
       <c r="H27">
         <v>188</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>64</v>
       </c>
       <c r="J27">
@@ -17726,7 +18602,7 @@
       <c r="H28">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
       <c r="J28">
@@ -17794,7 +18670,7 @@
       <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
       <c r="J29">
@@ -17862,7 +18738,7 @@
       <c r="H30">
         <v>472</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>67</v>
       </c>
       <c r="J30">
@@ -17930,7 +18806,7 @@
       <c r="H31">
         <v>392</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31">
@@ -17998,7 +18874,7 @@
       <c r="H32">
         <v>261</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
       <c r="J32">
@@ -18066,7 +18942,7 @@
       <c r="H33">
         <v>28</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33">
@@ -18134,7 +19010,7 @@
       <c r="H34">
         <v>418</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>71</v>
       </c>
       <c r="J34">
@@ -18202,7 +19078,7 @@
       <c r="H35">
         <v>62</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
       <c r="J35">
@@ -18270,7 +19146,7 @@
       <c r="H36">
         <v>360</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
       <c r="J36">
@@ -18338,7 +19214,7 @@
       <c r="H37">
         <v>227</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37">
@@ -18406,7 +19282,7 @@
       <c r="H38">
         <v>257</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
       <c r="J38">
@@ -18474,7 +19350,7 @@
       <c r="H39">
         <v>398</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>76</v>
       </c>
       <c r="J39">
@@ -18542,7 +19418,7 @@
       <c r="H40">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>77</v>
       </c>
       <c r="J40">
@@ -18610,7 +19486,7 @@
       <c r="H41">
         <v>179</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>78</v>
       </c>
       <c r="J41">
@@ -18678,7 +19554,7 @@
       <c r="H42">
         <v>52</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>79</v>
       </c>
       <c r="J42">
@@ -18746,7 +19622,7 @@
       <c r="H43">
         <v>485</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>80</v>
       </c>
       <c r="J43">
@@ -18814,7 +19690,7 @@
       <c r="H44">
         <v>171</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>81</v>
       </c>
       <c r="J44">
@@ -18882,7 +19758,7 @@
       <c r="H45">
         <v>327</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>82</v>
       </c>
       <c r="J45">
@@ -18950,7 +19826,7 @@
       <c r="H46">
         <v>66</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>83</v>
       </c>
       <c r="J46">
@@ -19018,7 +19894,7 @@
       <c r="H47">
         <v>134</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>84</v>
       </c>
       <c r="J47">
@@ -19086,7 +19962,7 @@
       <c r="H48">
         <v>340</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>85</v>
       </c>
       <c r="J48">
@@ -19154,7 +20030,7 @@
       <c r="H49">
         <v>348</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>86</v>
       </c>
       <c r="J49">
@@ -19222,7 +20098,7 @@
       <c r="H50">
         <v>385</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>87</v>
       </c>
       <c r="J50">
@@ -19290,7 +20166,7 @@
       <c r="H51">
         <v>116</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>88</v>
       </c>
       <c r="J51">
@@ -19457,7 +20333,7 @@
       <c r="H2">
         <v>107</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
       <c r="J2">
@@ -19525,7 +20401,7 @@
       <c r="H3">
         <v>122</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
       <c r="J3">
@@ -19593,7 +20469,7 @@
       <c r="H4">
         <v>88</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
       <c r="J4">
@@ -19661,7 +20537,7 @@
       <c r="H5">
         <v>131</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
       <c r="J5">
@@ -19729,7 +20605,7 @@
       <c r="H6">
         <v>492</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>43</v>
       </c>
       <c r="J6">
@@ -19797,7 +20673,7 @@
       <c r="H7">
         <v>444</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
       <c r="J7">
@@ -19865,7 +20741,7 @@
       <c r="H8">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>45</v>
       </c>
       <c r="J8">
@@ -19933,7 +20809,7 @@
       <c r="H9">
         <v>475</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9">
@@ -20001,7 +20877,7 @@
       <c r="H10">
         <v>476</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="J10">
@@ -20069,7 +20945,7 @@
       <c r="H11">
         <v>446</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>48</v>
       </c>
       <c r="J11">
@@ -20137,7 +21013,7 @@
       <c r="H12">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>49</v>
       </c>
       <c r="J12">
@@ -20205,7 +21081,7 @@
       <c r="H13">
         <v>485</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>50</v>
       </c>
       <c r="J13">
@@ -20273,7 +21149,7 @@
       <c r="H14">
         <v>167</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>51</v>
       </c>
       <c r="J14">
@@ -20341,7 +21217,7 @@
       <c r="H15">
         <v>14</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>52</v>
       </c>
       <c r="J15">
@@ -20409,7 +21285,7 @@
       <c r="H16">
         <v>53</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>53</v>
       </c>
       <c r="J16">
@@ -20477,7 +21353,7 @@
       <c r="H17">
         <v>444</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>54</v>
       </c>
       <c r="J17">
@@ -20545,7 +21421,7 @@
       <c r="H18">
         <v>431</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
       <c r="J18">
@@ -20613,7 +21489,7 @@
       <c r="H19">
         <v>50</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="J19">
@@ -20681,7 +21557,7 @@
       <c r="H20">
         <v>390</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
       <c r="J20">
@@ -20749,7 +21625,7 @@
       <c r="H21">
         <v>477</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>58</v>
       </c>
       <c r="J21">
@@ -20817,7 +21693,7 @@
       <c r="H22">
         <v>162</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
       <c r="J22">
@@ -20885,7 +21761,7 @@
       <c r="H23">
         <v>351</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>60</v>
       </c>
       <c r="J23">
@@ -20953,7 +21829,7 @@
       <c r="H24">
         <v>215</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>61</v>
       </c>
       <c r="J24">
@@ -21021,7 +21897,7 @@
       <c r="H25">
         <v>213</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>62</v>
       </c>
       <c r="J25">
@@ -21089,7 +21965,7 @@
       <c r="H26">
         <v>53</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>63</v>
       </c>
       <c r="J26">
@@ -21157,7 +22033,7 @@
       <c r="H27">
         <v>188</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>64</v>
       </c>
       <c r="J27">
@@ -21225,7 +22101,7 @@
       <c r="H28">
         <v>15</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
       <c r="J28">
@@ -21293,7 +22169,7 @@
       <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>66</v>
       </c>
       <c r="J29">
@@ -21361,7 +22237,7 @@
       <c r="H30">
         <v>472</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>67</v>
       </c>
       <c r="J30">
@@ -21429,7 +22305,7 @@
       <c r="H31">
         <v>392</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>68</v>
       </c>
       <c r="J31">
@@ -21497,7 +22373,7 @@
       <c r="H32">
         <v>261</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
       <c r="J32">
@@ -21565,7 +22441,7 @@
       <c r="H33">
         <v>28</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>70</v>
       </c>
       <c r="J33">
@@ -21633,7 +22509,7 @@
       <c r="H34">
         <v>418</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>71</v>
       </c>
       <c r="J34">
@@ -21701,7 +22577,7 @@
       <c r="H35">
         <v>62</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>72</v>
       </c>
       <c r="J35">
@@ -21769,7 +22645,7 @@
       <c r="H36">
         <v>360</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>73</v>
       </c>
       <c r="J36">
@@ -21837,7 +22713,7 @@
       <c r="H37">
         <v>227</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37">
@@ -21905,7 +22781,7 @@
       <c r="H38">
         <v>257</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>75</v>
       </c>
       <c r="J38">
@@ -21973,7 +22849,7 @@
       <c r="H39">
         <v>398</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>76</v>
       </c>
       <c r="J39">
@@ -22041,7 +22917,7 @@
       <c r="H40">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>77</v>
       </c>
       <c r="J40">
@@ -22109,7 +22985,7 @@
       <c r="H41">
         <v>179</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>78</v>
       </c>
       <c r="J41">
@@ -22177,7 +23053,7 @@
       <c r="H42">
         <v>52</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>79</v>
       </c>
       <c r="J42">
@@ -22245,7 +23121,7 @@
       <c r="H43">
         <v>485</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>80</v>
       </c>
       <c r="J43">
@@ -22313,7 +23189,7 @@
       <c r="H44">
         <v>171</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>81</v>
       </c>
       <c r="J44">
@@ -22381,7 +23257,7 @@
       <c r="H45">
         <v>327</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>82</v>
       </c>
       <c r="J45">
@@ -22449,7 +23325,7 @@
       <c r="H46">
         <v>66</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>83</v>
       </c>
       <c r="J46">
@@ -22517,7 +23393,7 @@
       <c r="H47">
         <v>134</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>84</v>
       </c>
       <c r="J47">
@@ -22585,7 +23461,7 @@
       <c r="H48">
         <v>340</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>85</v>
       </c>
       <c r="J48">
@@ -22653,7 +23529,7 @@
       <c r="H49">
         <v>348</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>86</v>
       </c>
       <c r="J49">
@@ -22721,7 +23597,7 @@
       <c r="H50">
         <v>385</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>87</v>
       </c>
       <c r="J50">
@@ -22789,7 +23665,7 @@
       <c r="H51">
         <v>116</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>88</v>
       </c>
       <c r="J51">
@@ -22842,10 +23718,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22857,10 +23733,14 @@
     <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -22894,8 +23774,32 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22924,7 +23828,7 @@
         <v>0.90778170895868249</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:J17" si="0">D2</f>
+        <f t="shared" ref="H2:J2" si="0">D2</f>
         <v>0.93526395807974283</v>
       </c>
       <c r="I2">
@@ -22939,15 +23843,47 @@
         <f>AVERAGE(C2:F2)</f>
         <v>0.94230954775131703</v>
       </c>
-      <c r="P2" t="s">
+      <c r="L2">
+        <f>T$2-C2</f>
+        <v>1.8112333912175815E-3</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:O2" si="1">U$2-D2</f>
+        <v>1.4537663786465815E-3</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="1"/>
+        <v>1.9525785707541488E-3</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="1"/>
+        <v>5.3847098594661524E-4</v>
+      </c>
+      <c r="R2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <f>MAX(K:K)</f>
         <v>0.94374856008295827</v>
       </c>
+      <c r="T2">
+        <f>C50</f>
+        <v>0.90959294234990007</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2:W2" si="2">D50</f>
+        <v>0.93671772445838941</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="2"/>
+        <v>0.93348378560366907</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>0.99519978791987462</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22976,30 +23912,46 @@
         <v>0.908548187651113</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J18" si="1">MAX(D3,H2)</f>
+        <f t="shared" ref="H3:J18" si="3">MAX(D3,H2)</f>
         <v>0.93526395807974283</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93153120703291492</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99466131693392801</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="2">AVERAGE(C3:F3)</f>
+        <f t="shared" ref="K3:K51" si="4">AVERAGE(C3:F3)</f>
         <v>0.94030599721098274</v>
       </c>
-      <c r="P3" t="s">
+      <c r="L3">
+        <f t="shared" ref="L3:L51" si="5">T$2-C3</f>
+        <v>1.0447546987870648E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M51" si="6">U$2-D3</f>
+        <v>3.0893365037859555E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N51" si="7">V$2-E3</f>
+        <v>8.6345002670972226E-3</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O51" si="8">W$2-F3</f>
+        <v>1.0016600182322088E-3</v>
+      </c>
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="Q3">
-        <f>A37</f>
-        <v>36</v>
+      <c r="S3">
+        <f>A50</f>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23024,27 +23976,43 @@
         <v>0.99327339038604023</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="3">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="9">MAX(C4,G3)</f>
         <v>0.908548187651113</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93526395807974283</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93615937469839205</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99466131693392801</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93685573283149826</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>2.0846996710633725E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>7.4735038560950207E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>-2.6755890947229855E-3</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>1.9263975338343897E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23069,27 +24037,43 @@
         <v>0.99396095660252048</v>
       </c>
       <c r="G5">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
         <v>0.93526395807974283</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93876992204618726</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99466131693392801</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94135260597975545</v>
       </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>9.3911314135493029E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>4.2399901244261073E-3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>-5.2861364425181856E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>1.2388313173541388E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23114,27 +24098,43 @@
         <v>0.99541834395639239</v>
       </c>
       <c r="G6">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93876992204618726</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93867498411688377</v>
       </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>1.498592744692695E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>-5.179271752370207E-4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="7"/>
+        <v>6.0448596291257095E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>-2.1855603651776967E-4</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23159,27 +24159,43 @@
         <v>0.99163870262820308</v>
       </c>
       <c r="G7">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93987088885415215</v>
       </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>1.1944922697314508E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>7.388358294866948E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="7"/>
+        <v>-7.3836813686283254E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="8"/>
+        <v>3.5610852916715396E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23204,33 +24220,49 @@
         <v>0.99397915508871804</v>
       </c>
       <c r="G8">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93268611322316852</v>
       </c>
-      <c r="P8" t="s">
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>2.5925198006357064E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>1.2720229221715229E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>4.3837273799305354E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="8"/>
+        <v>1.2206328311565873E-3</v>
+      </c>
+      <c r="R8" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23255,34 +24287,50 @@
         <v>0.99361913250086986</v>
       </c>
       <c r="G9">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.933856795645299</v>
       </c>
-      <c r="P9">
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>3.7404777153796975E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>7.318797637588248E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>-6.7371724597524718E-3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>1.5806554190047617E-3</v>
+      </c>
+      <c r="R9">
         <f>A43</f>
         <v>42</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23307,34 +24355,50 @@
         <v>0.99402626049117637</v>
       </c>
       <c r="G10">
+        <f t="shared" si="9"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="3"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94229252385425399</v>
       </c>
-      <c r="P10">
-        <f>P9</f>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>4.1468312106270888E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>3.2951061477328736E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>-2.7913198722406829E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="8"/>
+        <v>1.1735274286982511E-3</v>
+      </c>
+      <c r="R10">
+        <f>R9</f>
         <v>42</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23359,27 +24423,43 @@
         <v>0.99425355002064442</v>
       </c>
       <c r="G11">
+        <f t="shared" si="9"/>
+        <v>0.90867767265631549</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="3"/>
-        <v>0.90867767265631549</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94239007055235646</v>
       </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>9.1526969358457499E-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>2.8940454177147634E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="7"/>
+        <v>6.7840511187777786E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="8"/>
+        <v>9.4623789923020674E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23404,33 +24484,49 @@
         <v>0.99339218104948479</v>
       </c>
       <c r="G12">
+        <f t="shared" si="9"/>
+        <v>0.90867767265631549</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="3"/>
-        <v>0.90867767265631549</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93928903750343473</v>
       </c>
-      <c r="P12" t="s">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>7.5530220187802755E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>6.627790171223169E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>1.8496712577009689E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="8"/>
+        <v>1.8076068703898329E-3</v>
+      </c>
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23455,34 +24551,50 @@
         <v>0.99454293400133376</v>
       </c>
       <c r="G13">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94248717943247473</v>
       </c>
-      <c r="P13">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>-8.7346396106191548E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>2.3423845445248448E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>2.9197480999304526E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="8"/>
+        <v>6.5685391854086728E-4</v>
+      </c>
+      <c r="R13">
         <f>A45</f>
         <v>44</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23507,34 +24619,50 @@
         <v>0.99392603827784642</v>
       </c>
       <c r="G14">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94169519565747706</v>
       </c>
-      <c r="P14">
-        <f>P13</f>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>4.4346677513045218E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>3.7867342711975782E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>-1.281693962605468E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="8"/>
+        <v>1.2737496420281991E-3</v>
+      </c>
+      <c r="R14">
+        <f>R13</f>
         <v>44</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23559,27 +24687,43 @@
         <v>0.99385470640001172</v>
       </c>
       <c r="G15">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.92614458586786708</v>
       </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>3.9402446043467987E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>1.7869499067180716E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>1.1798870229853042E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>1.3450815198629007E-3</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23604,33 +24748,49 @@
         <v>0.9939041263643672</v>
       </c>
       <c r="G16">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93726743976344773</v>
       </c>
-      <c r="P16" t="s">
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>5.2747603409535326E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>5.3285523670912882E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="7"/>
+        <v>1.4025507014489902E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="8"/>
+        <v>1.2956615555074213E-3</v>
+      </c>
+      <c r="R16" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23655,34 +24815,50 @@
         <v>0.99492185585813042</v>
       </c>
       <c r="G17">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H17">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99541834395639239</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94153256678051112</v>
       </c>
-      <c r="P17">
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>6.8335850821323874E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>1.4150204965938107E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>3.3743556931808971E-4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="8"/>
+        <v>2.779320617442016E-4</v>
+      </c>
+      <c r="R17">
         <f>A7</f>
         <v>6</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23707,34 +24883,50 @@
         <v>0.99545410881559104</v>
       </c>
       <c r="G18">
+        <f t="shared" si="9"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="3"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
         <v>0.93723565163362643</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.99545410881559104</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94011714350833064</v>
       </c>
-      <c r="P18">
-        <f>P17</f>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>1.0381928416236752E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>3.9433925166476591E-5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>4.3586248528239002E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="8"/>
+        <v>-2.5432089571642003E-4</v>
+      </c>
+      <c r="R18">
+        <f>R17</f>
         <v>6</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23759,27 +24951,43 @@
         <v>0.99454003052645579</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H51" si="4">MAX(D19,H18)</f>
+        <f t="shared" ref="H19:H51" si="10">MAX(D19,H18)</f>
         <v>0.93723565163362643</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I51" si="5">MAX(E19,I18)</f>
+        <f t="shared" ref="I19:I51" si="11">MAX(E19,I18)</f>
         <v>0.94086746697229739</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J51" si="6">MAX(F19,J18)</f>
+        <f t="shared" ref="J19:J51" si="12">MAX(F19,J18)</f>
         <v>0.99545410881559104</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93794745487108178</v>
       </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>1.3948921676990023E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>4.1564887441951637E-3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>4.4392530329021573E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="8"/>
+        <v>6.597573934188361E-4</v>
+      </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23804,33 +25012,49 @@
         <v>0.99458208473093301</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H20">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I20">
+        <v>0.94312266502651676</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J20">
+        <v>7.5058547289397204E-4</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0.94312266502651676</v>
-      </c>
-      <c r="P20" t="s">
+        <v>2.0417789473140546E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>-9.0648738338361401E-4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="8"/>
+        <v>6.1770318894160958E-4</v>
+      </c>
+      <c r="R20" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23855,34 +25079,50 @@
         <v>0.99539911997940056</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H21">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I21">
+        <v>0.94181183070104046</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J21">
+        <v>3.9761662153118271E-3</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0.94181183070104046</v>
-      </c>
-      <c r="P21">
+        <v>-3.8666615822013917E-4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>4.3567495301054526E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="8"/>
+        <v>-1.9933205952593624E-4</v>
+      </c>
+      <c r="R21">
         <f>A41</f>
         <v>40</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23907,34 +25147,50 @@
         <v>0.99407272338482355</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H22">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I22">
+        <v>0.93958475430111454</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J22">
+        <v>1.144454839820952E-3</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0.93958475430111454</v>
-      </c>
-      <c r="P22">
-        <f>P21</f>
+        <v>3.6093993749053421E-3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>1.0774304377597743E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="8"/>
+        <v>1.12706453505107E-3</v>
+      </c>
+      <c r="R22">
+        <f>R21</f>
         <v>40</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23959,27 +25215,43 @@
         <v>0.99489314422938391</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H23">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I23">
+        <v>0.94322904021574538</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J23">
+        <v>1.309550809249771E-4</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0.94322904021574538</v>
+        <v>2.2084028492219687E-4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="7"/>
+        <v>1.4196404125133011E-3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="8"/>
+        <v>3.0664369049071549E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24004,27 +25276,43 @@
         <v>0.99322487476580856</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H24">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I24">
+        <v>0.94065036542249092</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J24">
+        <v>6.8960526970524016E-3</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0.94065036542249092</v>
+        <v>5.669512707493829E-3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>-2.1476999167424626E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="8"/>
+        <v>1.9749131540660603E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24049,27 +25337,43 @@
         <v>0.99493637613093089</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H25">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I25">
+        <v>0.94278785423394096</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J25">
+        <v>5.2720284737151069E-4</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0.94278785423394096</v>
+        <v>1.2647355987419617E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>1.7874731610121319E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="8"/>
+        <v>2.6341178894373485E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24094,27 +25398,43 @@
         <v>0.99400331277391063</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H26">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I26">
+        <v>0.93958749302366273</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J26">
+        <v>9.785284177500797E-3</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="2"/>
-        <v>0.93958749302366273</v>
+        <v>4.3839265953371509E-3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>1.2785823183802947E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="8"/>
+        <v>1.1964751459639933E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24139,27 +25459,43 @@
         <v>0.99465074456231828</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H27">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I27">
+        <v>0.94250919326835536</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J27">
+        <v>-3.0591819029945899E-4</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="2"/>
-        <v>0.94250919326835536</v>
+        <v>1.8367488111336039E-3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="7"/>
+        <v>2.877593280021018E-3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="8"/>
+        <v>5.490433575563447E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24184,27 +25520,43 @@
         <v>0.99201585970091521</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H28">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I28">
+        <v>0.93253619529238552</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J28">
+        <v>2.3157562164279111E-2</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="2"/>
-        <v>0.93253619529238552</v>
+        <v>1.6467823530954662E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>2.0401452480980353E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="8"/>
+        <v>3.1839282189594087E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24229,27 +25581,43 @@
         <v>0.9876262618237186</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H29">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I29">
+        <v>0.91579959616474604</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J29">
+        <v>6.0195336389495147E-2</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="2"/>
-        <v>0.91579959616474604</v>
+        <v>3.6277362675550706E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="7"/>
+        <v>7.749630511647454E-3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>7.5735260961560247E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24274,27 +25642,43 @@
         <v>0.99409283758237843</v>
       </c>
       <c r="G30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H30">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I30">
+        <v>0.9425789528402797</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J30">
+        <v>1.8928317882825896E-3</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="2"/>
-        <v>0.9425789528402797</v>
+        <v>3.0406990151368163E-3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>-1.3620521702014665E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>1.1069503374961931E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24319,27 +25703,43 @@
         <v>0.99523372148519729</v>
       </c>
       <c r="G31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91046640631096198</v>
       </c>
       <c r="H31">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I31">
+        <v>0.93760572999281566</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J31">
+        <v>2.0563261418735657E-2</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0.93760572999281566</v>
+        <v>3.7894440888533998E-3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="7"/>
+        <v>2.5254841830424368E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>-3.3933565322663561E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -24364,27 +25764,43 @@
         <v>0.99469446737781075</v>
       </c>
       <c r="G32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91059122038152951</v>
       </c>
       <c r="H32">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I32">
+        <v>0.94292221389565667</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J32">
+        <v>-9.982780316294404E-4</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0.94292221389565667</v>
+        <v>2.0630436671567054E-3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>1.7352985716154734E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>5.0532054206386956E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -24409,27 +25825,43 @@
         <v>0.99361162534675018</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91059122038152951</v>
       </c>
       <c r="H33">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I33">
+        <v>0.9345180732228513</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J33">
+        <v>7.8990615756125981E-3</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="2"/>
-        <v>0.9345180732228513</v>
+        <v>9.7190849677237789E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>1.7715638323967497E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="8"/>
+        <v>1.5881625731244409E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -24454,27 +25886,43 @@
         <v>0.99456933132431424</v>
       </c>
       <c r="G34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H34">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I34">
+        <v>0.94229680814369199</v>
+      </c>
+      <c r="L34">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J34">
+        <v>-1.0622863120071102E-3</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0.94229680814369199</v>
+        <v>1.8531702677307971E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>4.3856672057807078E-3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="8"/>
+        <v>6.3045659556038025E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -24499,27 +25947,43 @@
         <v>0.99523309212830102</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H35">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I35">
+        <v>0.93823565830856537</v>
+      </c>
+      <c r="L35">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J35">
+        <v>1.646888105064015E-2</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="2"/>
-        <v>0.93823565830856537</v>
+        <v>4.8455210049132003E-3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>7.705092504446398E-4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="8"/>
+        <v>-3.3304208426399029E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -24544,27 +26008,43 @@
         <v>0.99536685660814828</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H36">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I36">
+        <v>0.94211676293994395</v>
+      </c>
+      <c r="L36">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J36">
+        <v>5.685906026499099E-4</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.94211676293994395</v>
+        <v>-5.0081095509146856E-4</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>6.6264776127722413E-3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="8"/>
+        <v>-1.6706868827365273E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -24589,27 +26069,43 @@
         <v>0.99522406880574343</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H37">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I37">
+        <v>0.9413737763481087</v>
+      </c>
+      <c r="L37">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J37">
+        <v>3.6347040913747852E-3</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0.9413737763481087</v>
+        <v>5.0661655007711026E-4</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>5.382095183815494E-3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>-2.4280885868810387E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -24634,27 +26130,43 @@
         <v>0.99535359064368623</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H38">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I38">
+        <v>0.94006332537365844</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J38">
+        <v>9.9654913182143368E-3</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0.94006332537365844</v>
+        <v>-4.7213028851322836E-4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>5.4013805313098961E-3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>-1.5380272381160243E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -24679,27 +26191,43 @@
         <v>0.99423792028573188</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H39">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I39">
+        <v>0.94289654372298171</v>
+      </c>
+      <c r="L39">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J39">
+        <v>1.0034345672882417E-3</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0.94289654372298171</v>
+        <v>2.6271167189003686E-3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>-1.1843534804247824E-3</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>9.6186763414274346E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -24724,27 +26252,43 @@
         <v>0.99339714793243705</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H40">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="12"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I40">
+        <v>0.93267795592673552</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J40">
+        <v>1.8167210312918014E-2</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="6"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0.93267795592673552</v>
+        <v>1.3587196111199629E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>1.0725370213335972E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>1.8026399874375709E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -24769,27 +26313,43 @@
         <v>0.99552005322349868</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H41">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I41">
+        <v>0.93962144399051928</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J41">
+        <v>1.2682038284413832E-2</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0.93962144399051928</v>
+        <v>2.5213470277261063E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>1.6253443612403995E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>-3.2026530362405659E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -24814,27 +26374,43 @@
         <v>0.99477768488704132</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91065522866190718</v>
       </c>
       <c r="H42">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I42">
+        <v>0.93583634847844654</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J42">
+        <v>2.1773869072882035E-2</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0.93583634847844654</v>
+        <v>3.8328002964355123E-3</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>5.6200740158960372E-3</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>4.2210303283329864E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -24859,27 +26435,43 @@
         <v>0.99489995293567601</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H43">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I43">
+        <v>0.94371086897932743</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J43">
+        <v>-1.8232174817272018E-3</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0.94371086897932743</v>
+        <v>9.9160238773821074E-4</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>6.8254452431371071E-4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>2.9983498419861032E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -24904,27 +26496,43 @@
         <v>0.99507366748709247</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H44">
+        <f t="shared" si="10"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="4"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I44">
+        <v>0.94132905392884292</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J44">
+        <v>6.8497600674181092E-3</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0.94132905392884292</v>
+        <v>1.1759836270028856E-3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>1.5261604892581326E-3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>1.2612043278215079E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -24949,27 +26557,43 @@
         <v>0.99518394120397602</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H45">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I45">
+        <v>0.94176148767626566</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J45">
+        <v>3.1168446703989661E-3</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0.94176148767626566</v>
+        <v>-9.6497702735620638E-4</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>5.7805752678291578E-3</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>1.5846715898604202E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -24994,27 +26618,43 @@
         <v>0.99371176021939989</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H46">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I46">
+        <v>0.93903356718050346</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J46">
+        <v>1.2279331112313163E-2</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0.93903356718050346</v>
+        <v>5.2144041252176754E-3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>-1.2179132818646021E-4</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>1.4880277004747366E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -25039,27 +26679,43 @@
         <v>0.99448165371463304</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H47">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I47">
+        <v>0.94201106411574154</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J47">
+        <v>3.1391220344749726E-3</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0.94201106411574154</v>
+        <v>3.2027683362254589E-3</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>-1.1004070707509861E-4</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>7.1813420524158289E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25084,27 +26740,43 @@
         <v>0.9944478595787789</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H48">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I48">
+        <v>0.94299456706626805</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J48">
+        <v>3.7104353099013387E-3</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="2"/>
-        <v>0.94299456706626805</v>
+        <v>2.6485831052452946E-3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>-4.0949746894811678E-3</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="8"/>
+        <v>7.5192834109572004E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25129,27 +26801,43 @@
         <v>0.99464957613553939</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H49">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I49">
+        <v>0.94221375361496973</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J49">
+        <v>-7.5856737752999503E-4</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0.94221375361496973</v>
+        <v>2.1174742782935629E-3</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>4.2301071868549034E-3</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>5.5021178433523055E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -25174,27 +26862,43 @@
         <v>0.99519978791987462</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H50">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I50">
+        <v>0.94374856008295827</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0.94374856008295827</v>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -25219,50 +26923,66 @@
         <v>0.99507206942778159</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H51">
+        <f t="shared" si="10"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="12"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="4"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I51">
+        <v>0.94070638270597873</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="5"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J51">
+        <v>7.2688133604230654E-3</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="6"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="2"/>
-        <v>0.94070638270597873</v>
+        <v>2.2000188778790175E-3</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>2.5721587775233701E-3</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="8"/>
+        <v>1.2771849209303188E-4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$G$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$H$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$I$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$J$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>$Q$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>$S$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\RandomForestClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485A802-B056-4572-BF47-22E0187F7492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B5CC1B-1AC0-4436-8E27-B745E43409B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
@@ -27,20 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'elevators (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$V$51</definedName>
@@ -108,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="98">
   <si>
     <t>Column1</t>
   </si>
@@ -388,6 +380,21 @@
   <si>
     <t>PhishingWebsites</t>
   </si>
+  <si>
+    <t>cummulative elevators</t>
+  </si>
+  <si>
+    <t>cummulative telesope</t>
+  </si>
+  <si>
+    <t>cummulative mozilla</t>
+  </si>
+  <si>
+    <t>cummulative phishing</t>
+  </si>
+  <si>
+    <t>cummulative</t>
+  </si>
 </sst>
 </file>
 
@@ -996,7 +1003,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$9:$R$10</c:f>
+              <c:f>Sheet1!$V$9:$V$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1011,7 +1018,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2922,7 +2929,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$13:$R$14</c:f>
+              <c:f>Sheet1!$V$13:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2937,7 +2944,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4878,7 +4885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$21:$R$22</c:f>
+              <c:f>Sheet1!$V$21:$V$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4893,7 +4900,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5691,7 +5698,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$R$17:$R$18</c:f>
+              <c:f>Sheet1!$V$17:$V$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5706,7 +5713,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$S$9:$S$10</c:f>
+              <c:f>Sheet1!$W$9:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6010,22 +6017,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6035,7 +6042,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{57CF8EF3-5E66-40CB-B8EA-EDC59B0B9426}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6048,7 +6055,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A9F46C-17CE-423E-9448-C87E9B9CB633}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6061,7 +6068,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76994B59-597B-4150-A6A0-35749A3C9D9B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6074,7 +6081,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4575643-015F-45DF-BB5E-9FC01524F218}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9004,7 +9011,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3E0552-2969-E84C-AA59-AFA83D3DE79F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573CD6DA-144A-C4E3-A492-5B2768520CC6}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -23718,10 +23725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:W2"/>
+    <sheetView tabSelected="1" topLeftCell="H173" zoomScale="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23737,10 +23744,15 @@
     <col min="13" max="13" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" customWidth="1"/>
+    <col min="16" max="16" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -23786,20 +23798,35 @@
       <c r="O1" t="s">
         <v>92</v>
       </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
       <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>90</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>91</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23844,46 +23871,65 @@
         <v>0.94230954775131703</v>
       </c>
       <c r="L2">
-        <f>T$2-C2</f>
+        <f>X$2-C2</f>
         <v>1.8112333912175815E-3</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:O2" si="1">U$2-D2</f>
+        <f>Y$2-D2</f>
         <v>1.4537663786465815E-3</v>
       </c>
       <c r="N2">
+        <f>Z$2-E2</f>
+        <v>1.9525785707541488E-3</v>
+      </c>
+      <c r="O2">
+        <f>AA$2-F2</f>
+        <v>5.3847098594661524E-4</v>
+      </c>
+      <c r="P2">
+        <f>$W$2-C2</f>
+        <v>3.5966851124275778E-2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:S2" si="1">$W$2-D2</f>
+        <v>8.4846020032154357E-3</v>
+      </c>
+      <c r="R2">
         <f t="shared" si="1"/>
-        <v>1.9525785707541488E-3</v>
-      </c>
-      <c r="O2">
+        <v>1.2217353050043345E-2</v>
+      </c>
+      <c r="S2">
         <f t="shared" si="1"/>
-        <v>5.3847098594661524E-4</v>
-      </c>
-      <c r="R2" t="s">
+        <v>-5.0912756850969743E-2</v>
+      </c>
+      <c r="T2">
+        <v>3.5966851124275778E-2</v>
+      </c>
+      <c r="V2" t="s">
         <v>28</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <f>MAX(K:K)</f>
         <v>0.94374856008295827</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <f>C50</f>
         <v>0.90959294234990007</v>
       </c>
-      <c r="U2">
-        <f t="shared" ref="U2:W2" si="2">D50</f>
+      <c r="Y2">
+        <f>D50</f>
         <v>0.93671772445838941</v>
       </c>
-      <c r="V2">
-        <f t="shared" si="2"/>
+      <c r="Z2">
+        <f>E50</f>
         <v>0.93348378560366907</v>
       </c>
-      <c r="W2">
-        <f t="shared" si="2"/>
+      <c r="AA2">
+        <f>F50</f>
         <v>0.99519978791987462</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23912,46 +23958,65 @@
         <v>0.908548187651113</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J18" si="3">MAX(D3,H2)</f>
+        <f t="shared" ref="H3:J18" si="2">MAX(D3,H2)</f>
         <v>0.93526395807974283</v>
       </c>
       <c r="I3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.93153120703291492</v>
       </c>
       <c r="J3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.99466131693392801</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K51" si="4">AVERAGE(C3:F3)</f>
+        <f t="shared" ref="K3:K51" si="3">AVERAGE(C3:F3)</f>
         <v>0.94030599721098274</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L51" si="5">T$2-C3</f>
+        <f t="shared" ref="L3:L51" si="4">X$2-C3</f>
         <v>1.0447546987870648E-3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M51" si="6">U$2-D3</f>
+        <f t="shared" ref="M3:M51" si="5">Y$2-D3</f>
         <v>3.0893365037859555E-3</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N51" si="7">V$2-E3</f>
+        <f t="shared" ref="N3:N51" si="6">Z$2-E3</f>
         <v>8.6345002670972226E-3</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O51" si="8">W$2-F3</f>
+        <f t="shared" ref="O3:O51" si="7">AA$2-F3</f>
         <v>1.0016600182322088E-3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3">
+        <f t="shared" ref="P3:P51" si="8">$W$2-C3</f>
+        <v>3.5200372431845262E-2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q51" si="9">$W$2-D3</f>
+        <v>1.012017212835481E-2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R51" si="10">$W$2-E3</f>
+        <v>1.8899274746386419E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:T51" si="11">$W$2-F3</f>
+        <v>-5.0449567818684149E-2</v>
+      </c>
+      <c r="T3">
+        <v>3.5200372431845262E-2</v>
+      </c>
+      <c r="V3" t="s">
         <v>30</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <f>A50</f>
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23976,43 +24041,62 @@
         <v>0.99327339038604023</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="9">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="12">MAX(C4,G3)</f>
         <v>0.908548187651113</v>
       </c>
       <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.93526395807974283</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>0.93615937469839205</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>0.99466131693392801</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="3"/>
-        <v>0.93526395807974283</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>0.93615937469839205</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
-        <v>0.99466131693392801</v>
-      </c>
-      <c r="K4">
+        <v>0.93685573283149826</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="4"/>
-        <v>0.93685573283149826</v>
-      </c>
-      <c r="L4">
+        <v>2.0846996710633725E-2</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="5"/>
-        <v>2.0846996710633725E-2</v>
-      </c>
-      <c r="M4">
+        <v>7.4735038560950207E-3</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="6"/>
-        <v>7.4735038560950207E-3</v>
-      </c>
-      <c r="N4">
+        <v>-2.6755890947229855E-3</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="7"/>
-        <v>-2.6755890947229855E-3</v>
-      </c>
-      <c r="O4">
+        <v>1.9263975338343897E-3</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="8"/>
-        <v>1.9263975338343897E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>5.5002614443691922E-2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>1.4504339480663875E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>7.5891853845662105E-3</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="11"/>
+        <v>-4.9524830303081968E-2</v>
+      </c>
+      <c r="T4">
+        <v>5.5002614443691922E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24037,43 +24121,62 @@
         <v>0.99396095660252048</v>
       </c>
       <c r="G5">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.93526395807974283</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>0.93876992204618726</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>0.99466131693392801</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>0.94135260597975545</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>9.3911314135493029E-3</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>4.2399901244261073E-3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>-5.2861364425181856E-3</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>1.2388313173541388E-3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>4.35467491466075E-2</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>0.93526395807974283</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>0.93876992204618726</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
-        <v>0.99466131693392801</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="4"/>
-        <v>0.94135260597975545</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="5"/>
-        <v>9.3911314135493029E-3</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>4.2399901244261073E-3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="7"/>
-        <v>-5.2861364425181856E-3</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="8"/>
-        <v>1.2388313173541388E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>1.1270825748994961E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>4.9786380367710104E-3</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>-5.0212396519562219E-2</v>
+      </c>
+      <c r="T5">
+        <v>4.35467491466075E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24098,43 +24201,62 @@
         <v>0.99541834395639239</v>
       </c>
       <c r="G6">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0.93876992204618726</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>0.93867498411688377</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.498592744692695E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>-5.179271752370207E-4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>6.0448596291257095E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>-2.1855603651776967E-4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>4.9141545179985147E-2</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>0.93876992204618726</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="4"/>
-        <v>0.93867498411688377</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="5"/>
-        <v>1.498592744692695E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>-5.179271752370207E-4</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="7"/>
-        <v>6.0448596291257095E-3</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="8"/>
-        <v>-2.1855603651776967E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>6.5129084493318334E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>1.6309634108414905E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="11"/>
+        <v>-5.1669783873434127E-2</v>
+      </c>
+      <c r="T6">
+        <v>4.9141545179985147E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24159,43 +24281,62 @@
         <v>0.99163870262820308</v>
       </c>
       <c r="G7">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>0.93987088885415215</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>1.1944922697314508E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>7.388358294866948E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>-7.3836813686283254E-3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>3.5610852916715396E-3</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>4.6100540430372705E-2</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
-        <v>0.93987088885415215</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="5"/>
-        <v>1.1944922697314508E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>7.388358294866948E-3</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="7"/>
-        <v>-7.3836813686283254E-3</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="8"/>
-        <v>3.5610852916715396E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>1.4419193919435802E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>2.8810931106608706E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>-4.7890142545244818E-2</v>
+      </c>
+      <c r="T7">
+        <v>4.6100540430372705E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24220,49 +24361,68 @@
         <v>0.99397915508871804</v>
       </c>
       <c r="G8">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.93268611322316852</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>2.5925198006357064E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>1.2720229221715229E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>4.3837273799305354E-3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>1.2206328311565873E-3</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>6.0080815739415261E-2</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0.93268611322316852</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="5"/>
-        <v>2.5925198006357064E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>1.2720229221715229E-2</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="7"/>
-        <v>4.3837273799305354E-3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="8"/>
-        <v>1.2206328311565873E-3</v>
-      </c>
-      <c r="R8" t="s">
+        <v>1.9751064846284083E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>1.4648501859219731E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>-5.0230595005759771E-2</v>
+      </c>
+      <c r="T8">
+        <v>6.0080815739415261E-2</v>
+      </c>
+      <c r="V8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" t="s">
+      <c r="W8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24287,50 +24447,69 @@
         <v>0.99361913250086986</v>
       </c>
       <c r="G9">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.933856795645299</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>3.7404777153796975E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>7.318797637588248E-3</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>-6.7371724597524718E-3</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>1.5806554190047617E-3</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>7.1560394886855172E-2</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0.933856795645299</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="5"/>
-        <v>3.7404777153796975E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="6"/>
-        <v>7.318797637588248E-3</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="7"/>
-        <v>-6.7371724597524718E-3</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="8"/>
-        <v>1.5806554190047617E-3</v>
+        <v>1.4349633262157102E-2</v>
       </c>
       <c r="R9">
+        <f t="shared" si="10"/>
+        <v>3.5276020195367241E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>-4.9870572417911596E-2</v>
+      </c>
+      <c r="T9">
+        <v>7.1560394886855172E-2</v>
+      </c>
+      <c r="V9">
         <f>A43</f>
         <v>42</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24355,50 +24534,69 @@
         <v>0.99402626049117637</v>
       </c>
       <c r="G10">
+        <f t="shared" si="12"/>
+        <v>0.908548187651113</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.94229252385425399</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>4.1468312106270888E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>3.2951061477328736E-3</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>-2.7913198722406829E-3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>1.1735274286982511E-3</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>3.8302448943685286E-2</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="9"/>
-        <v>0.908548187651113</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0.94229252385425399</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="5"/>
-        <v>4.1468312106270888E-3</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="6"/>
-        <v>3.2951061477328736E-3</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="7"/>
-        <v>-2.7913198722406829E-3</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="8"/>
-        <v>1.1735274286982511E-3</v>
+        <v>1.0325941772301728E-2</v>
       </c>
       <c r="R10">
-        <f>R9</f>
+        <f t="shared" si="10"/>
+        <v>7.4734546070485131E-3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>-5.0277700408218107E-2</v>
+      </c>
+      <c r="T10">
+        <v>3.8302448943685286E-2</v>
+      </c>
+      <c r="V10">
+        <f>V9</f>
         <v>42</v>
       </c>
-      <c r="S10">
+      <c r="W10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24423,43 +24621,62 @@
         <v>0.99425355002064442</v>
       </c>
       <c r="G11">
+        <f t="shared" si="12"/>
+        <v>0.90867767265631549</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>0.94239007055235646</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>9.1526969358457499E-4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>2.8940454177147634E-3</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>6.7840511187777786E-4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>9.4623789923020674E-4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>3.5070887426642772E-2</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="9"/>
-        <v>0.90867767265631549</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0.94239007055235646</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="5"/>
-        <v>9.1526969358457499E-4</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="6"/>
-        <v>2.8940454177147634E-3</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="7"/>
-        <v>6.7840511187777786E-4</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="8"/>
-        <v>9.4623789923020674E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+        <v>9.9248810422836176E-3</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>1.0943179591166974E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="11"/>
+        <v>-5.0504989937686151E-2</v>
+      </c>
+      <c r="T11">
+        <v>3.5070887426642772E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24484,49 +24701,68 @@
         <v>0.99339218104948479</v>
       </c>
       <c r="G12">
+        <f t="shared" si="12"/>
+        <v>0.90867767265631549</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0.93928903750343473</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>7.5530220187802755E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>6.627790171223169E-3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>1.8496712577009689E-3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>1.8076068703898329E-3</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>4.1708639751838472E-2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="9"/>
-        <v>0.90867767265631549</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0.93928903750343473</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="5"/>
-        <v>7.5530220187802755E-3</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="6"/>
-        <v>6.627790171223169E-3</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
-        <v>1.8496712577009689E-3</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="8"/>
-        <v>1.8076068703898329E-3</v>
-      </c>
-      <c r="R12" t="s">
+        <v>1.3658625795792023E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>1.2114445736990165E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>-4.9643620966526525E-2</v>
+      </c>
+      <c r="T12">
+        <v>4.1708639751838472E-2</v>
+      </c>
+      <c r="V12" t="s">
         <v>33</v>
       </c>
-      <c r="S12" t="s">
+      <c r="W12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -24551,50 +24787,69 @@
         <v>0.99454293400133376</v>
       </c>
       <c r="G13">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0.94248717943247473</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>-8.7346396106191548E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>2.3423845445248448E-3</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>2.9197480999304526E-3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>6.5685391854086728E-4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>3.3282153771996281E-2</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0.94248717943247473</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>-8.7346396106191548E-4</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="6"/>
-        <v>2.3423845445248448E-3</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="7"/>
-        <v>2.9197480999304526E-3</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="8"/>
-        <v>6.5685391854086728E-4</v>
+        <v>9.3732201690936989E-3</v>
       </c>
       <c r="R13">
+        <f t="shared" si="10"/>
+        <v>1.3184522579219649E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="11"/>
+        <v>-5.0794373918375491E-2</v>
+      </c>
+      <c r="T13">
+        <v>3.3282153771996281E-2</v>
+      </c>
+      <c r="V13">
         <f>A45</f>
         <v>44</v>
       </c>
-      <c r="S13">
+      <c r="W13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -24619,50 +24874,69 @@
         <v>0.99392603827784642</v>
       </c>
       <c r="G14">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0.94169519565747706</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>4.4346677513045218E-3</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>3.7867342711975782E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>-1.281693962605468E-3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>1.2737496420281991E-3</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>3.8590285484362719E-2</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0.94169519565747706</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="5"/>
-        <v>4.4346677513045218E-3</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
-        <v>3.7867342711975782E-3</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="7"/>
-        <v>-1.281693962605468E-3</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="8"/>
-        <v>1.2737496420281991E-3</v>
+        <v>1.0817569895766432E-2</v>
       </c>
       <c r="R14">
-        <f>R13</f>
+        <f t="shared" si="10"/>
+        <v>8.983080516683728E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>-5.0177478194888159E-2</v>
+      </c>
+      <c r="T14">
+        <v>3.8590285484362719E-2</v>
+      </c>
+      <c r="V14">
+        <f>V13</f>
         <v>44</v>
       </c>
-      <c r="S14">
+      <c r="W14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -24687,43 +24961,62 @@
         <v>0.99385470640001172</v>
       </c>
       <c r="G15">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0.92614458586786708</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>3.9402446043467987E-2</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1.7869499067180716E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>1.1798870229853042E-2</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>1.3450815198629007E-3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>7.3558063776526184E-2</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0.92614458586786708</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="5"/>
-        <v>3.9402446043467987E-2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="6"/>
-        <v>1.7869499067180716E-2</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="7"/>
-        <v>1.1798870229853042E-2</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="8"/>
-        <v>1.3450815198629007E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <v>2.490033469174957E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>2.2063644709142238E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>-5.0106146317053457E-2</v>
+      </c>
+      <c r="T15">
+        <v>7.3558063776526184E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -24748,49 +25041,68 @@
         <v>0.9939041263643672</v>
       </c>
       <c r="G16">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0.93726743976344773</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>5.2747603409535326E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>5.3285523670912882E-3</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>1.4025507014489902E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>1.2956615555074213E-3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>3.9430378074011729E-2</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0.93726743976344773</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="5"/>
-        <v>5.2747603409535326E-3</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="6"/>
-        <v>5.3285523670912882E-3</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="7"/>
-        <v>1.4025507014489902E-2</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="8"/>
-        <v>1.2956615555074213E-3</v>
-      </c>
-      <c r="R16" t="s">
+        <v>1.2359387991660142E-2</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>2.4290281493779098E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>-5.0155566281408936E-2</v>
+      </c>
+      <c r="T16">
+        <v>3.9430378074011729E-2</v>
+      </c>
+      <c r="V16" t="s">
         <v>34</v>
       </c>
-      <c r="S16" t="s">
+      <c r="W16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24815,50 +25127,69 @@
         <v>0.99492185585813042</v>
       </c>
       <c r="G17">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0.99541834395639239</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0.94153256678051112</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>6.8335850821323874E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>1.4150204965938107E-3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>3.3743556931808971E-4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>2.779320617442016E-4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>4.0989202815190584E-2</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="3"/>
-        <v>0.99541834395639239</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>0.94153256678051112</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="5"/>
-        <v>6.8335850821323874E-3</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="6"/>
-        <v>1.4150204965938107E-3</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="7"/>
-        <v>3.3743556931808971E-4</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="8"/>
-        <v>2.779320617442016E-4</v>
+        <v>8.4458561211626648E-3</v>
       </c>
       <c r="R17">
+        <f t="shared" si="10"/>
+        <v>1.0602210048607286E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="11"/>
+        <v>-5.1173295775172156E-2</v>
+      </c>
+      <c r="T17">
+        <v>4.0989202815190584E-2</v>
+      </c>
+      <c r="V17">
         <f>A7</f>
         <v>6</v>
       </c>
-      <c r="S17">
+      <c r="W17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -24883,50 +25214,69 @@
         <v>0.99545410881559104</v>
       </c>
       <c r="G18">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0.94011714350833064</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>1.0381928416236752E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>3.9433925166476591E-5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>4.3586248528239002E-3</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>-2.5432089571642003E-4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>4.4537546149294949E-2</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="3"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="3"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0.94011714350833064</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="5"/>
-        <v>1.0381928416236752E-2</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="6"/>
-        <v>3.9433925166476591E-5</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="7"/>
-        <v>4.3586248528239002E-3</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="8"/>
-        <v>-2.5432089571642003E-4</v>
+        <v>7.0702695497353307E-3</v>
       </c>
       <c r="R18">
-        <f>R17</f>
+        <f t="shared" si="10"/>
+        <v>1.4623399332113096E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="11"/>
+        <v>-5.1705548732632778E-2</v>
+      </c>
+      <c r="T18">
+        <v>4.4537546149294949E-2</v>
+      </c>
+      <c r="V18">
+        <f>V17</f>
         <v>6</v>
       </c>
-      <c r="S18">
+      <c r="W18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -24951,43 +25301,62 @@
         <v>0.99454003052645579</v>
       </c>
       <c r="G19">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:H51" si="13">MAX(D19,H18)</f>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I51" si="14">MAX(E19,I18)</f>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J51" si="15">MAX(F19,J18)</f>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0.93794745487108178</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>1.3948921676990023E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>4.1564887441951637E-3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>4.4392530329021573E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>6.597573934188361E-4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>4.8104539410048219E-2</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ref="H19:H51" si="10">MAX(D19,H18)</f>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ref="I19:I51" si="11">MAX(E19,I18)</f>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:J51" si="12">MAX(F19,J18)</f>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0.93794745487108178</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="5"/>
-        <v>1.3948921676990023E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="6"/>
-        <v>4.1564887441951637E-3</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="7"/>
-        <v>4.4392530329021573E-3</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="8"/>
-        <v>6.597573934188361E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+        <v>1.1187324368764018E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>1.4704027512191353E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>-5.0791470443497522E-2</v>
+      </c>
+      <c r="T19">
+        <v>4.8104539410048219E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -25012,49 +25381,68 @@
         <v>0.99458208473093301</v>
       </c>
       <c r="G20">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.94312266502651676</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>7.5058547289397204E-4</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>2.0417789473140546E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>-9.0648738338361401E-4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>6.1770318894160958E-4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>3.4906203205952169E-2</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H20">
+        <v>9.0726145718829088E-3</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I20">
+        <v>9.3582870959055819E-3</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0.94312266502651676</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="5"/>
-        <v>7.5058547289397204E-4</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="6"/>
-        <v>2.0417789473140546E-3</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="7"/>
-        <v>-9.0648738338361401E-4</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="8"/>
-        <v>6.1770318894160958E-4</v>
-      </c>
-      <c r="R20" t="s">
+        <v>-5.0833524647974748E-2</v>
+      </c>
+      <c r="T20">
+        <v>3.4906203205952169E-2</v>
+      </c>
+      <c r="V20" t="s">
         <v>35</v>
       </c>
-      <c r="S20" t="s">
+      <c r="W20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -25079,50 +25467,69 @@
         <v>0.99539911997940056</v>
       </c>
       <c r="G21">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0.94181183070104046</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>3.9761662153118271E-3</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>-3.8666615822013917E-4</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>4.3567495301054526E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>-1.9933205952593624E-4</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>3.8131783948370024E-2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H21">
+        <v>6.644169466348715E-3</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I21">
+        <v>1.4621524009394649E-2</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>0.94181183070104046</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="5"/>
-        <v>3.9761662153118271E-3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="6"/>
-        <v>-3.8666615822013917E-4</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="7"/>
-        <v>4.3567495301054526E-3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="8"/>
-        <v>-1.9933205952593624E-4</v>
-      </c>
-      <c r="R21">
+        <v>-5.1650559896442294E-2</v>
+      </c>
+      <c r="T21">
+        <v>3.8131783948370024E-2</v>
+      </c>
+      <c r="V21">
         <f>A41</f>
         <v>40</v>
       </c>
-      <c r="S21">
+      <c r="W21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -25147,50 +25554,69 @@
         <v>0.99407272338482355</v>
       </c>
       <c r="G22">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0.93958475430111454</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>1.144454839820952E-3</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>3.6093993749053421E-3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>1.0774304377597743E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>1.12706453505107E-3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>3.5300072572879149E-2</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H22">
+        <v>1.0640234999474196E-2</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I22">
+        <v>2.1039078856886939E-2</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>0.93958475430111454</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="5"/>
-        <v>1.144454839820952E-3</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="6"/>
-        <v>3.6093993749053421E-3</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="7"/>
-        <v>1.0774304377597743E-2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="8"/>
-        <v>1.12706453505107E-3</v>
-      </c>
-      <c r="R22">
-        <f>R21</f>
+        <v>-5.0324163301865288E-2</v>
+      </c>
+      <c r="T22">
+        <v>3.5300072572879149E-2</v>
+      </c>
+      <c r="V22">
+        <f>V21</f>
         <v>40</v>
       </c>
-      <c r="S22">
+      <c r="W22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -25215,43 +25641,62 @@
         <v>0.99489314422938391</v>
       </c>
       <c r="G23">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0.94322904021574538</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>1.309550809249771E-4</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>2.2084028492219687E-4</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>1.4196404125133011E-3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>3.0664369049071549E-4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>3.4286572813983174E-2</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H23">
+        <v>7.251675909491051E-3</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I23">
+        <v>1.1684414891802497E-2</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0.94322904021574538</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="5"/>
-        <v>1.309550809249771E-4</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="6"/>
-        <v>2.2084028492219687E-4</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="7"/>
-        <v>1.4196404125133011E-3</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="8"/>
-        <v>3.0664369049071549E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.1144584146425642E-2</v>
+      </c>
+      <c r="T23">
+        <v>3.4286572813983174E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -25276,43 +25721,62 @@
         <v>0.99322487476580856</v>
       </c>
       <c r="G24">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.94065036542249092</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>6.8960526970524016E-3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>5.669512707493829E-3</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>-2.1476999167424626E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>1.9749131540660603E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>4.1051670430110598E-2</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H24">
+        <v>1.2700348332062683E-2</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I24">
+        <v>8.1170745625467333E-3</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0.94065036542249092</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="5"/>
-        <v>6.8960526970524016E-3</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="6"/>
-        <v>5.669512707493829E-3</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="7"/>
-        <v>-2.1476999167424626E-3</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="8"/>
-        <v>1.9749131540660603E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-4.9476314682850298E-2</v>
+      </c>
+      <c r="T24">
+        <v>4.1051670430110598E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -25337,43 +25801,62 @@
         <v>0.99493637613093089</v>
       </c>
       <c r="G25">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.94278785423394096</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>5.2720284737151069E-4</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>1.2647355987419617E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>1.7874731610121319E-3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>2.6341178894373485E-4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>3.4682820580429707E-2</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H25">
+        <v>8.2955712233108159E-3</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I25">
+        <v>1.2052247640301328E-2</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0.94278785423394096</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="5"/>
-        <v>5.2720284737151069E-4</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="6"/>
-        <v>1.2647355987419617E-3</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="7"/>
-        <v>1.7874731610121319E-3</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="8"/>
-        <v>2.6341178894373485E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.1187816047972623E-2</v>
+      </c>
+      <c r="T25">
+        <v>3.4682820580429707E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -25398,43 +25881,62 @@
         <v>0.99400331277391063</v>
       </c>
       <c r="G26">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.93958749302366273</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>9.785284177500797E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>4.3839265953371509E-3</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>1.2785823183802947E-3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>1.1964751459639933E-3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>4.3940901910558994E-2</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H26">
+        <v>1.1414762219906005E-2</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I26">
+        <v>1.1543356797669491E-2</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0.93958749302366273</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>9.785284177500797E-3</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="6"/>
-        <v>4.3839265953371509E-3</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="7"/>
-        <v>1.2785823183802947E-3</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="8"/>
-        <v>1.1964751459639933E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.0254752690952365E-2</v>
+      </c>
+      <c r="T26">
+        <v>4.3940901910558994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -25459,43 +25961,62 @@
         <v>0.99465074456231828</v>
       </c>
       <c r="G27">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.94250919326835536</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>-3.0591819029945899E-4</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>1.8367488111336039E-3</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>2.877593280021018E-3</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>5.490433575563447E-4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>3.3849699542758738E-2</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H27">
+        <v>8.867584435702458E-3</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I27">
+        <v>1.3142367759310214E-2</v>
+      </c>
+      <c r="S27">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>0.94250919326835536</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="5"/>
-        <v>-3.0591819029945899E-4</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="6"/>
-        <v>1.8367488111336039E-3</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="7"/>
-        <v>2.877593280021018E-3</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="8"/>
-        <v>5.490433575563447E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.0902184479360013E-2</v>
+      </c>
+      <c r="T27">
+        <v>3.3849699542758738E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -25520,43 +26041,62 @@
         <v>0.99201585970091521</v>
       </c>
       <c r="G28">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0.93253619529238552</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2.3157562164279111E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>1.6467823530954662E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>2.0401452480980353E-3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>3.1839282189594087E-3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>5.7313179897337307E-2</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H28">
+        <v>2.3498659155523516E-2</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I28">
+        <v>1.2304919727387231E-2</v>
+      </c>
+      <c r="S28">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>0.93253619529238552</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>2.3157562164279111E-2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="6"/>
-        <v>1.6467823530954662E-2</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="7"/>
-        <v>2.0401452480980353E-3</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="8"/>
-        <v>3.1839282189594087E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-4.8267299617956949E-2</v>
+      </c>
+      <c r="T28">
+        <v>5.7313179897337307E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -25581,43 +26121,62 @@
         <v>0.9876262618237186</v>
       </c>
       <c r="G29">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0.91579959616474604</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>6.0195336389495147E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>3.6277362675550706E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>7.749630511647454E-3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>7.5735260961560247E-3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>9.4350954122553343E-2</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H29">
+        <v>4.330819830011956E-2</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I29">
+        <v>1.801440499093665E-2</v>
+      </c>
+      <c r="S29">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>0.91579959616474604</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="5"/>
-        <v>6.0195336389495147E-2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="6"/>
-        <v>3.6277362675550706E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="7"/>
-        <v>7.749630511647454E-3</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="8"/>
-        <v>7.5735260961560247E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-4.3877701740760333E-2</v>
+      </c>
+      <c r="T29">
+        <v>9.4350954122553343E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -25642,43 +26201,62 @@
         <v>0.99409283758237843</v>
       </c>
       <c r="G30">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0.9425789528402797</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>1.8928317882825896E-3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>3.0406990151368163E-3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>-1.3620521702014665E-3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>1.1069503374961931E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>3.6048449521340786E-2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H30">
+        <v>1.007153463970567E-2</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I30">
+        <v>8.9027223090877294E-3</v>
+      </c>
+      <c r="S30">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>0.9425789528402797</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="5"/>
-        <v>1.8928317882825896E-3</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="6"/>
-        <v>3.0406990151368163E-3</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="7"/>
-        <v>-1.3620521702014665E-3</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="8"/>
-        <v>1.1069503374961931E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.0344277499420165E-2</v>
+      </c>
+      <c r="T30">
+        <v>3.6048449521340786E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -25703,43 +26281,62 @@
         <v>0.99523372148519729</v>
       </c>
       <c r="G31">
+        <f t="shared" si="12"/>
+        <v>0.91046640631096198</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0.93760572999281566</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>2.0563261418735657E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>3.7894440888533998E-3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>2.5254841830424368E-4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>-3.3933565322663561E-5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>5.4718879151793853E-2</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="9"/>
-        <v>0.91046640631096198</v>
-      </c>
-      <c r="H31">
+        <v>1.0820279713422254E-2</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I31">
+        <v>1.051732289759344E-2</v>
+      </c>
+      <c r="S31">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>0.93760572999281566</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="5"/>
-        <v>2.0563261418735657E-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>3.7894440888533998E-3</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="7"/>
-        <v>2.5254841830424368E-4</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="8"/>
-        <v>-3.3933565322663561E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+        <v>-5.1485161402239021E-2</v>
+      </c>
+      <c r="T31">
+        <v>5.4718879151793853E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25764,43 +26361,62 @@
         <v>0.99469446737781075</v>
       </c>
       <c r="G32">
+        <f t="shared" si="12"/>
+        <v>0.91059122038152951</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0.94292221389565667</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>-9.982780316294404E-4</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>2.0630436671567054E-3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>1.7352985716154734E-3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>5.0532054206386956E-4</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>3.3157339701428756E-2</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="9"/>
-        <v>0.91059122038152951</v>
-      </c>
-      <c r="H32">
+        <v>9.0938792917255595E-3</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I32">
+        <v>1.2000073050904669E-2</v>
+      </c>
+      <c r="S32">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>0.94292221389565667</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="5"/>
-        <v>-9.982780316294404E-4</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="6"/>
-        <v>2.0630436671567054E-3</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="7"/>
-        <v>1.7352985716154734E-3</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="8"/>
-        <v>5.0532054206386956E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0945907294852488E-2</v>
+      </c>
+      <c r="T32">
+        <v>3.3157339701428756E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25825,43 +26441,62 @@
         <v>0.99361162534675018</v>
       </c>
       <c r="G33">
+        <f t="shared" si="12"/>
+        <v>0.91059122038152951</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>0.9345180732228513</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>7.8990615756125981E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>9.7190849677237789E-3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>1.7715638323967497E-2</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>1.5881625731244409E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>4.2054679308670795E-2</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="9"/>
-        <v>0.91059122038152951</v>
-      </c>
-      <c r="H33">
+        <v>1.6749920592292633E-2</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I33">
+        <v>2.7980412803256693E-2</v>
+      </c>
+      <c r="S33">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>0.9345180732228513</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="5"/>
-        <v>7.8990615756125981E-3</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="6"/>
-        <v>9.7190849677237789E-3</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="7"/>
-        <v>1.7715638323967497E-2</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="8"/>
-        <v>1.5881625731244409E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-4.9863065263791917E-2</v>
+      </c>
+      <c r="T33">
+        <v>4.2054679308670795E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25886,43 +26521,62 @@
         <v>0.99456933132431424</v>
       </c>
       <c r="G34">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>0.94229680814369199</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>-1.0622863120071102E-3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>1.8531702677307971E-3</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>4.3856672057807078E-3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>6.3045659556038025E-4</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>3.3093331421051086E-2</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H34">
+        <v>8.8840058922996512E-3</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I34">
+        <v>1.4650441685069904E-2</v>
+      </c>
+      <c r="S34">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="4"/>
-        <v>0.94229680814369199</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="5"/>
-        <v>-1.0622863120071102E-3</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="6"/>
-        <v>1.8531702677307971E-3</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="7"/>
-        <v>4.3856672057807078E-3</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="8"/>
-        <v>6.3045659556038025E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0820771241355978E-2</v>
+      </c>
+      <c r="T34">
+        <v>3.3093331421051086E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25947,43 +26601,62 @@
         <v>0.99523309212830102</v>
       </c>
       <c r="G35">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>0.93823565830856537</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>1.646888105064015E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>4.8455210049132003E-3</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>7.705092504446398E-4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>-3.3304208426399029E-5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>5.0624498783698346E-2</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H35">
+        <v>1.1876356629482054E-2</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I35">
+        <v>1.1035283729733836E-2</v>
+      </c>
+      <c r="S35">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>0.93823565830856537</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="5"/>
-        <v>1.646888105064015E-2</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="6"/>
-        <v>4.8455210049132003E-3</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="7"/>
-        <v>7.705092504446398E-4</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="8"/>
-        <v>-3.3304208426399029E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1484532045342757E-2</v>
+      </c>
+      <c r="T35">
+        <v>5.0624498783698346E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -26008,43 +26681,62 @@
         <v>0.99536685660814828</v>
       </c>
       <c r="G36">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>0.94211676293994395</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>5.685906026499099E-4</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>-5.0081095509146856E-4</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>6.6264776127722413E-3</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>-1.6706868827365273E-4</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>3.4724208335708107E-2</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H36">
+        <v>6.5300246694773856E-3</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I36">
+        <v>1.6891252092061437E-2</v>
+      </c>
+      <c r="S36">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>0.94211676293994395</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="5"/>
-        <v>5.685906026499099E-4</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="6"/>
-        <v>-5.0081095509146856E-4</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="7"/>
-        <v>6.6264776127722413E-3</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="8"/>
-        <v>-1.6706868827365273E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1618296525190011E-2</v>
+      </c>
+      <c r="T36">
+        <v>3.4724208335708107E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -26069,43 +26761,62 @@
         <v>0.99522406880574343</v>
       </c>
       <c r="G37">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>0.9413737763481087</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>3.6347040913747852E-3</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>5.0661655007711026E-4</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>5.382095183815494E-3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>-2.4280885868810387E-5</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>3.7790321824432982E-2</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H37">
+        <v>7.5374521746459644E-3</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I37">
+        <v>1.564686966310469E-2</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>0.9413737763481087</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="5"/>
-        <v>3.6347040913747852E-3</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="6"/>
-        <v>5.0661655007711026E-4</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="7"/>
-        <v>5.382095183815494E-3</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="8"/>
-        <v>-2.4280885868810387E-5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1475508722785168E-2</v>
+      </c>
+      <c r="T37">
+        <v>3.7790321824432982E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -26130,43 +26841,62 @@
         <v>0.99535359064368623</v>
       </c>
       <c r="G38">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>0.94006332537365844</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>9.9654913182143368E-3</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>-4.7213028851322836E-4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>5.4013805313098961E-3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>-1.5380272381160243E-4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>4.4121109051272533E-2</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H38">
+        <v>6.5587053360556258E-3</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I38">
+        <v>1.5666155010599092E-2</v>
+      </c>
+      <c r="S38">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>0.94006332537365844</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="5"/>
-        <v>9.9654913182143368E-3</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="6"/>
-        <v>-4.7213028851322836E-4</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="7"/>
-        <v>5.4013805313098961E-3</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="8"/>
-        <v>-1.5380272381160243E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.160503056072796E-2</v>
+      </c>
+      <c r="T38">
+        <v>4.4121109051272533E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -26191,43 +26921,62 @@
         <v>0.99423792028573188</v>
       </c>
       <c r="G39">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>0.94289654372298171</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>1.0034345672882417E-3</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>2.6271167189003686E-3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>-1.1843534804247824E-3</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>9.6186763414274346E-4</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>3.5159052300346438E-2</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H39">
+        <v>9.6579523434692227E-3</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I39">
+        <v>9.0804209988644136E-3</v>
+      </c>
+      <c r="S39">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>0.94289654372298171</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="5"/>
-        <v>1.0034345672882417E-3</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="6"/>
-        <v>2.6271167189003686E-3</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="7"/>
-        <v>-1.1843534804247824E-3</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="8"/>
-        <v>9.6186763414274346E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0489360202773614E-2</v>
+      </c>
+      <c r="T39">
+        <v>3.5159052300346438E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -26252,43 +27001,62 @@
         <v>0.99339714793243705</v>
       </c>
       <c r="G40">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="15"/>
+        <v>0.99545410881559104</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>0.93267795592673552</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>1.8167210312918014E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>1.3587196111199629E-2</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>1.0725370213335972E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>1.8026399874375709E-3</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>5.2322828045976211E-2</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H40">
+        <v>2.0618031735768483E-2</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I40">
+        <v>2.0990144692625168E-2</v>
+      </c>
+      <c r="S40">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="12"/>
-        <v>0.99545410881559104</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="4"/>
-        <v>0.93267795592673552</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="5"/>
-        <v>1.8167210312918014E-2</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="6"/>
-        <v>1.3587196111199629E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="7"/>
-        <v>1.0725370213335972E-2</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="8"/>
-        <v>1.8026399874375709E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-4.9648587849478787E-2</v>
+      </c>
+      <c r="T40">
+        <v>5.2322828045976211E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -26313,43 +27081,62 @@
         <v>0.99552005322349868</v>
       </c>
       <c r="G41">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>0.93962144399051928</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>1.2682038284413832E-2</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>2.5213470277261063E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>1.6253443612403995E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>-3.2026530362405659E-4</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>4.6837656017472029E-2</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H41">
+        <v>9.5521826522949604E-3</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I41">
+        <v>1.1890118840529595E-2</v>
+      </c>
+      <c r="S41">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="4"/>
-        <v>0.93962144399051928</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="5"/>
-        <v>1.2682038284413832E-2</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="6"/>
-        <v>2.5213470277261063E-3</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="7"/>
-        <v>1.6253443612403995E-3</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="8"/>
-        <v>-3.2026530362405659E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1771493140540414E-2</v>
+      </c>
+      <c r="T41">
+        <v>4.6837656017472029E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -26374,43 +27161,62 @@
         <v>0.99477768488704132</v>
       </c>
       <c r="G42">
+        <f t="shared" si="12"/>
+        <v>0.91065522866190718</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>0.93583634847844654</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>2.1773869072882035E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>3.8328002964355123E-3</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>5.6200740158960372E-3</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>4.2210303283329864E-4</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>5.5929486805940232E-2</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="9"/>
-        <v>0.91065522866190718</v>
-      </c>
-      <c r="H42">
+        <v>1.0863635921004366E-2</v>
+      </c>
+      <c r="R42">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I42">
+        <v>1.5884848495185233E-2</v>
+      </c>
+      <c r="S42">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="4"/>
-        <v>0.93583634847844654</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="5"/>
-        <v>2.1773869072882035E-2</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="6"/>
-        <v>3.8328002964355123E-3</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="7"/>
-        <v>5.6200740158960372E-3</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="8"/>
-        <v>4.2210303283329864E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1029124804083059E-2</v>
+      </c>
+      <c r="T42">
+        <v>5.5929486805940232E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -26435,43 +27241,62 @@
         <v>0.99489995293567601</v>
       </c>
       <c r="G43">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>0.94371086897932743</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>-1.8232174817272018E-3</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>9.9160238773821074E-4</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>6.8254452431371071E-4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>2.9983498419861032E-4</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>3.2332400251330995E-2</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H43">
+        <v>8.0224380123070649E-3</v>
+      </c>
+      <c r="R43">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I43">
+        <v>1.0947319003602907E-2</v>
+      </c>
+      <c r="S43">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="4"/>
-        <v>0.94371086897932743</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="5"/>
-        <v>-1.8232174817272018E-3</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="6"/>
-        <v>9.9160238773821074E-4</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="7"/>
-        <v>6.8254452431371071E-4</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="8"/>
-        <v>2.9983498419861032E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1151392852717747E-2</v>
+      </c>
+      <c r="T43">
+        <v>3.2332400251330995E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -26496,43 +27321,62 @@
         <v>0.99507366748709247</v>
       </c>
       <c r="G44">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="13"/>
+        <v>0.93723565163362643</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>0.94132905392884292</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>6.8497600674181092E-3</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>1.1759836270028856E-3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>1.5261604892581326E-3</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>1.2612043278215079E-4</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>4.1005377800476306E-2</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H44">
+        <v>8.2068192515717397E-3</v>
+      </c>
+      <c r="R44">
         <f t="shared" si="10"/>
-        <v>0.93723565163362643</v>
-      </c>
-      <c r="I44">
+        <v>1.1790934968547329E-2</v>
+      </c>
+      <c r="S44">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="4"/>
-        <v>0.94132905392884292</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="5"/>
-        <v>6.8497600674181092E-3</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="6"/>
-        <v>1.1759836270028856E-3</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="7"/>
-        <v>1.5261604892581326E-3</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="8"/>
-        <v>1.2612043278215079E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1325107404134207E-2</v>
+      </c>
+      <c r="T44">
+        <v>4.1005377800476306E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -26557,43 +27401,62 @@
         <v>0.99518394120397602</v>
       </c>
       <c r="G45">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>0.94176148767626566</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>3.1168446703989661E-3</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>-9.6497702735620638E-4</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>5.7805752678291578E-3</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>1.5846715898604202E-5</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>3.7272462403457163E-2</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H45">
+        <v>6.0658585972126478E-3</v>
+      </c>
+      <c r="R45">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I45">
+        <v>1.6045349747118354E-2</v>
+      </c>
+      <c r="S45">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="4"/>
-        <v>0.94176148767626566</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="5"/>
-        <v>3.1168446703989661E-3</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="6"/>
-        <v>-9.6497702735620638E-4</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="7"/>
-        <v>5.7805752678291578E-3</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="8"/>
-        <v>1.5846715898604202E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.1435381121017754E-2</v>
+      </c>
+      <c r="T45">
+        <v>3.7272462403457163E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -26618,43 +27481,62 @@
         <v>0.99371176021939989</v>
       </c>
       <c r="G46">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>0.93903356718050346</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>1.2279331112313163E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>5.2144041252176754E-3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>-1.2179132818646021E-4</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>1.4880277004747366E-3</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>4.643494884537136E-2</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H46">
+        <v>1.224523974978653E-2</v>
+      </c>
+      <c r="R46">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I46">
+        <v>1.0142983151102736E-2</v>
+      </c>
+      <c r="S46">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="4"/>
-        <v>0.93903356718050346</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="5"/>
-        <v>1.2279331112313163E-2</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="6"/>
-        <v>5.2144041252176754E-3</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="7"/>
-        <v>-1.2179132818646021E-4</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="8"/>
-        <v>1.4880277004747366E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-4.9963200136441621E-2</v>
+      </c>
+      <c r="T46">
+        <v>4.643494884537136E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -26679,43 +27561,62 @@
         <v>0.99448165371463304</v>
       </c>
       <c r="G47">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>0.94201106411574154</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>3.1391220344749726E-3</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>3.2027683362254589E-3</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>-1.1004070707509861E-4</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>7.1813420524158289E-4</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>3.7294739767533169E-2</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H47">
+        <v>1.0233603960794313E-2</v>
+      </c>
+      <c r="R47">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I47">
+        <v>1.0154733772214097E-2</v>
+      </c>
+      <c r="S47">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="4"/>
-        <v>0.94201106411574154</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="5"/>
-        <v>3.1391220344749726E-3</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="6"/>
-        <v>3.2027683362254589E-3</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="7"/>
-        <v>-1.1004070707509861E-4</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="8"/>
-        <v>7.1813420524158289E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0733093631674775E-2</v>
+      </c>
+      <c r="T47">
+        <v>3.7294739767533169E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -26740,43 +27641,62 @@
         <v>0.9944478595787789</v>
       </c>
       <c r="G48">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>0.94299456706626805</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>3.7104353099013387E-3</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>2.6485831052452946E-3</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>-4.0949746894811678E-3</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>7.5192834109572004E-4</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>3.7866053042959535E-2</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H48">
+        <v>9.6794187298141487E-3</v>
+      </c>
+      <c r="R48">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I48">
+        <v>6.1697997898080281E-3</v>
+      </c>
+      <c r="S48">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="4"/>
-        <v>0.94299456706626805</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="5"/>
-        <v>3.7104353099013387E-3</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="6"/>
-        <v>2.6485831052452946E-3</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="7"/>
-        <v>-4.0949746894811678E-3</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="8"/>
-        <v>7.5192834109572004E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0699299495820638E-2</v>
+      </c>
+      <c r="T48">
+        <v>3.7866053042959535E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -26801,43 +27721,62 @@
         <v>0.99464957613553939</v>
       </c>
       <c r="G49">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>0.94221375361496973</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>-7.5856737752999503E-4</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>2.1174742782935629E-3</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>4.2301071868549034E-3</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>5.5021178433523055E-4</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>3.3397050355528202E-2</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H49">
+        <v>9.1483099028624171E-3</v>
+      </c>
+      <c r="R49">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I49">
+        <v>1.4494881666144099E-2</v>
+      </c>
+      <c r="S49">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="4"/>
-        <v>0.94221375361496973</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="5"/>
-        <v>-7.5856737752999503E-4</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="6"/>
-        <v>2.1174742782935629E-3</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="7"/>
-        <v>4.2301071868549034E-3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="8"/>
-        <v>5.5021178433523055E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5.0901016052581127E-2</v>
+      </c>
+      <c r="T49">
+        <v>3.3397050355528202E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -26862,43 +27801,62 @@
         <v>0.99519978791987462</v>
       </c>
       <c r="G50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.91141615983162727</v>
       </c>
       <c r="H50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.93768270148574562</v>
       </c>
       <c r="I50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.94086746697229739</v>
       </c>
       <c r="J50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.99552005322349868</v>
       </c>
       <c r="K50">
+        <f t="shared" si="3"/>
+        <v>0.94374856008295827</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="4"/>
-        <v>0.94374856008295827</v>
-      </c>
-      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.4155617733058197E-2</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>7.0308356245688541E-3</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="10"/>
+        <v>1.0264774479289196E-2</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="11"/>
+        <v>-5.1451227836916358E-2</v>
+      </c>
+      <c r="T50">
+        <v>3.4155617733058197E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -26923,40 +27881,809 @@
         <v>0.99507206942778159</v>
       </c>
       <c r="G51">
+        <f t="shared" si="12"/>
+        <v>0.91141615983162727</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>0.93768270148574562</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="14"/>
+        <v>0.94086746697229739</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="15"/>
+        <v>0.99552005322349868</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>0.94070638270597873</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>7.2688133604230654E-3</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>2.2000188778790175E-3</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>2.5721587775233701E-3</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>1.2771849209303188E-4</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>4.1424431093481262E-2</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="9"/>
-        <v>0.91141615983162727</v>
-      </c>
-      <c r="H51">
+        <v>9.2308545024478716E-3</v>
+      </c>
+      <c r="R51">
         <f t="shared" si="10"/>
-        <v>0.93768270148574562</v>
-      </c>
-      <c r="I51">
+        <v>1.2836933256812566E-2</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="11"/>
-        <v>0.94086746697229739</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="12"/>
-        <v>0.99552005322349868</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="4"/>
-        <v>0.94070638270597873</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="5"/>
-        <v>7.2688133604230654E-3</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="6"/>
-        <v>2.2000188778790175E-3</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="7"/>
-        <v>2.5721587775233701E-3</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="8"/>
-        <v>1.2771849209303188E-4</v>
+        <v>-5.1323509344823326E-2</v>
+      </c>
+      <c r="T51">
+        <v>4.1424431093481262E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>8.4846020032154357E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <v>1.012017212835481E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T54">
+        <v>1.4504339480663875E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>1.1270825748994961E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>6.5129084493318334E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>1.4419193919435802E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>1.9751064846284083E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <v>1.4349633262157102E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T60">
+        <v>1.0325941772301728E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <v>9.9248810422836176E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <v>1.3658625795792023E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <v>9.3732201690936989E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T64">
+        <v>1.0817569895766432E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T65">
+        <v>2.490033469174957E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>1.2359387991660142E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>8.4458561211626648E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>7.0702695497353307E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T69">
+        <v>1.1187324368764018E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>9.0726145718829088E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>6.644169466348715E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>1.0640234999474196E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <v>7.251675909491051E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <v>1.2700348332062683E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>8.2955712233108159E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>1.1414762219906005E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T77">
+        <v>8.867584435702458E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <v>2.3498659155523516E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>4.330819830011956E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>1.007153463970567E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>1.0820279713422254E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <v>9.0938792917255595E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T83">
+        <v>1.6749920592292633E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>8.8840058922996512E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>1.1876356629482054E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>6.5300246694773856E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>7.5374521746459644E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T88">
+        <v>6.5587053360556258E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <v>9.6579523434692227E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>2.0618031735768483E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>9.5521826522949604E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>1.0863635921004366E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <v>8.0224380123070649E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T94">
+        <v>8.2068192515717397E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T95">
+        <v>6.0658585972126478E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>1.224523974978653E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <v>1.0233603960794313E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>9.6794187298141487E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <v>9.1483099028624171E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <v>7.0308356245688541E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <v>9.2308545024478716E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T102">
+        <v>1.2217353050043345E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <v>1.8899274746386419E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <v>7.5891853845662105E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <v>4.9786380367710104E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <v>1.6309634108414905E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T107">
+        <v>2.8810931106608706E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>1.4648501859219731E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <v>3.5276020195367241E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <v>7.4734546070485131E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <v>1.0943179591166974E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <v>1.2114445736990165E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T113">
+        <v>1.3184522579219649E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <v>8.983080516683728E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T115">
+        <v>2.2063644709142238E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T116">
+        <v>2.4290281493779098E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <v>1.0602210048607286E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T118">
+        <v>1.4623399332113096E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T119">
+        <v>1.4704027512191353E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T120">
+        <v>9.3582870959055819E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T121">
+        <v>1.4621524009394649E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T122">
+        <v>2.1039078856886939E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T123">
+        <v>1.1684414891802497E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <v>8.1170745625467333E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T125">
+        <v>1.2052247640301328E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T126">
+        <v>1.1543356797669491E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T127">
+        <v>1.3142367759310214E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T128">
+        <v>1.2304919727387231E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T129">
+        <v>1.801440499093665E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T130">
+        <v>8.9027223090877294E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T131">
+        <v>1.051732289759344E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T132">
+        <v>1.2000073050904669E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T133">
+        <v>2.7980412803256693E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T134">
+        <v>1.4650441685069904E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T135">
+        <v>1.1035283729733836E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T136">
+        <v>1.6891252092061437E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T137">
+        <v>1.564686966310469E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T138">
+        <v>1.5666155010599092E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T139">
+        <v>9.0804209988644136E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T140">
+        <v>2.0990144692625168E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T141">
+        <v>1.1890118840529595E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T142">
+        <v>1.5884848495185233E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T143">
+        <v>1.0947319003602907E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T144">
+        <v>1.1790934968547329E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T145">
+        <v>1.6045349747118354E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T146">
+        <v>1.0142983151102736E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T147">
+        <v>1.0154733772214097E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T148">
+        <v>6.1697997898080281E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T149">
+        <v>1.4494881666144099E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T150">
+        <v>1.0264774479289196E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T151">
+        <v>1.2836933256812566E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T152">
+        <v>-5.0912756850969743E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T153">
+        <v>-5.0449567818684149E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T154">
+        <v>-4.9524830303081968E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T155">
+        <v>-5.0212396519562219E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T156">
+        <v>-5.1669783873434127E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T157">
+        <v>-4.7890142545244818E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T158">
+        <v>-5.0230595005759771E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T159">
+        <v>-4.9870572417911596E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T160">
+        <v>-5.0277700408218107E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T161">
+        <v>-5.0504989937686151E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T162">
+        <v>-4.9643620966526525E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T163">
+        <v>-5.0794373918375491E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T164">
+        <v>-5.0177478194888159E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T165">
+        <v>-5.0106146317053457E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T166">
+        <v>-5.0155566281408936E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T167">
+        <v>-5.1173295775172156E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T168">
+        <v>-5.1705548732632778E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T169">
+        <v>-5.0791470443497522E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T170">
+        <v>-5.0833524647974748E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T171">
+        <v>-5.1650559896442294E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T172">
+        <v>-5.0324163301865288E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T173">
+        <v>-5.1144584146425642E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T174">
+        <v>-4.9476314682850298E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T175">
+        <v>-5.1187816047972623E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T176">
+        <v>-5.0254752690952365E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T177">
+        <v>-5.0902184479360013E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T178">
+        <v>-4.8267299617956949E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T179">
+        <v>-4.3877701740760333E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T180">
+        <v>-5.0344277499420165E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T181">
+        <v>-5.1485161402239021E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T182">
+        <v>-5.0945907294852488E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T183">
+        <v>-4.9863065263791917E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T184">
+        <v>-5.0820771241355978E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T185">
+        <v>-5.1484532045342757E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T186">
+        <v>-5.1618296525190011E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T187">
+        <v>-5.1475508722785168E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T188">
+        <v>-5.160503056072796E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T189">
+        <v>-5.0489360202773614E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T190">
+        <v>-4.9648587849478787E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T191">
+        <v>-5.1771493140540414E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T192">
+        <v>-5.1029124804083059E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T193">
+        <v>-5.1151392852717747E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T194">
+        <v>-5.1325107404134207E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T195">
+        <v>-5.1435381121017754E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T196">
+        <v>-4.9963200136441621E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T197">
+        <v>-5.0733093631674775E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T198">
+        <v>-5.0699299495820638E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T199">
+        <v>-5.0901016052581127E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T200">
+        <v>-5.1451227836916358E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="20:20" x14ac:dyDescent="0.35">
+      <c r="T201">
+        <v>-5.1323509344823326E-2</v>
       </c>
     </row>
   </sheetData>
@@ -26982,7 +28709,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>$S$2</formula>
+      <formula>$W$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\RandomForestClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B5CC1B-1AC0-4436-8E27-B745E43409B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAE825A-6BAA-4152-8954-B23D8CF899C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -27,12 +27,20 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'elevators (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'MagicTelescope (3)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'mozilla4 (3)'!$A$1:$V$51</definedName>
@@ -502,6 +510,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1412,7 +1423,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3368,7 +3379,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5322,7 +5333,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6017,22 +6028,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6042,7 +6053,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{57CF8EF3-5E66-40CB-B8EA-EDC59B0B9426}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6055,7 +6066,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A9F46C-17CE-423E-9448-C87E9B9CB633}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6068,7 +6079,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76994B59-597B-4150-A6A0-35749A3C9D9B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6081,7 +6092,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4575643-015F-45DF-BB5E-9FC01524F218}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8890,7 +8901,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8938A5B4-DBC8-4EA6-9905-CEDA311AC977}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="175" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8934,7 +8945,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9011,7 +9022,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573CD6DA-144A-C4E3-A492-5B2768520CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8AEF5C-52F4-C597-D422-B05C29FDE451}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -23727,8 +23738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H173" zoomScale="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T201"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24002,7 +24013,7 @@
         <v>1.8899274746386419E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:T51" si="11">$W$2-F3</f>
+        <f t="shared" ref="S3:S51" si="11">$W$2-F3</f>
         <v>-5.0449567818684149E-2</v>
       </c>
       <c r="T3">

--- a/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
+++ b/HW1/results/v1/RandomForestClassifier/random/calculationsAndCharts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\RandomForestClassifier\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAE825A-6BAA-4152-8954-B23D8CF899C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6AB27D-EFCA-4AD2-B426-5100798C3B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (3)" sheetId="18" r:id="rId1"/>
@@ -6028,22 +6028,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6053,7 +6053,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{57CF8EF3-5E66-40CB-B8EA-EDC59B0B9426}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6066,7 +6066,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23A9F46C-17CE-423E-9448-C87E9B9CB633}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6079,7 +6079,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{76994B59-597B-4150-A6A0-35749A3C9D9B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6092,7 +6092,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F4575643-015F-45DF-BB5E-9FC01524F218}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6108,7 +6108,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling/>
+        <cx:valScaling max="0.25"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -8901,7 +8901,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8938A5B4-DBC8-4EA6-9905-CEDA311AC977}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8945,7 +8945,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8956,7 +8956,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8661400" cy="6288314"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -9022,7 +9022,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A8AEF5C-52F4-C597-D422-B05C29FDE451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7EE250-5B10-7FDF-814C-A2CB0F2BB4DD}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9033,7 +9033,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657167" cy="6286500"/>
+          <a:ext cx="8661400" cy="6288314"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
